--- a/src/test/DB/table.xlsx
+++ b/src/test/DB/table.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EB103288-5B4E-404D-AF8D-EE7121933ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\git\Leggo_final\src\test\DB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21630" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21630" windowHeight="14895"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhBL5vhRAU0la7TiVTN+9ByDT8zhQ=="/>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="293">
   <si>
     <t>주차장</t>
   </si>
@@ -1494,11 +1497,15 @@
     </r>
     <phoneticPr fontId="35" type="noConversion"/>
   </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="42">
     <font>
       <sz val="10"/>
@@ -2064,17 +2071,24 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2087,13 +2101,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2308,14 +2315,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:Y984"/>
+  <dimension ref="B1:Y983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L100" workbookViewId="0">
-      <selection activeCell="S106" sqref="S106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2339,29 +2346,29 @@
     <row r="2" spans="2:24" ht="15.75" customHeight="1"/>
     <row r="3" spans="2:24" ht="15.75" customHeight="1"/>
     <row r="4" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="94"/>
       <c r="M4" s="1"/>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="94"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -2911,8 +2918,8 @@
       <c r="C17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>27</v>
+      <c r="D17" s="86" t="s">
+        <v>292</v>
       </c>
       <c r="E17" s="15">
         <v>15</v>
@@ -3186,21 +3193,21 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="94"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="97" t="s">
+      <c r="H26" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="94"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -3707,37 +3714,37 @@
       <c r="X40" s="6"/>
     </row>
     <row r="41" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="96"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="98"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="103" t="s">
+      <c r="H41" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="96"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="98"/>
       <c r="M41" s="1"/>
-      <c r="O41" s="97" t="s">
+      <c r="O41" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="92"/>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="92"/>
-      <c r="S41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="94"/>
       <c r="T41" s="1"/>
-      <c r="U41" s="97" t="s">
+      <c r="U41" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="V41" s="92"/>
-      <c r="W41" s="92"/>
-      <c r="X41" s="92"/>
-      <c r="Y41" s="93"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="93"/>
+      <c r="X41" s="93"/>
+      <c r="Y41" s="94"/>
     </row>
     <row r="42" spans="2:25" ht="15.75" customHeight="1">
       <c r="B42" s="2" t="s">
@@ -4524,29 +4531,29 @@
       <c r="X61" s="6"/>
     </row>
     <row r="62" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B62" s="94" t="s">
+      <c r="B62" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="C62" s="95"/>
-      <c r="D62" s="95"/>
-      <c r="E62" s="95"/>
-      <c r="F62" s="96"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="98"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="94" t="s">
+      <c r="H62" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="I62" s="95"/>
-      <c r="J62" s="95"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="95"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="97"/>
+      <c r="L62" s="97"/>
       <c r="M62" s="53"/>
-      <c r="O62" s="97" t="s">
+      <c r="O62" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="P62" s="92"/>
-      <c r="Q62" s="92"/>
-      <c r="R62" s="92"/>
-      <c r="S62" s="93"/>
+      <c r="P62" s="93"/>
+      <c r="Q62" s="93"/>
+      <c r="R62" s="93"/>
+      <c r="S62" s="94"/>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
@@ -4715,11 +4722,11 @@
       <c r="S65" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T65" s="98"/>
-      <c r="U65" s="99"/>
-      <c r="V65" s="99"/>
-      <c r="W65" s="99"/>
-      <c r="X65" s="99"/>
+      <c r="T65" s="101"/>
+      <c r="U65" s="102"/>
+      <c r="V65" s="102"/>
+      <c r="W65" s="102"/>
+      <c r="X65" s="102"/>
     </row>
     <row r="66" spans="2:25" ht="15.75" customHeight="1">
       <c r="B66" s="55" t="s">
@@ -4833,7 +4840,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="6"/>
@@ -5232,11 +5239,11 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
-      <c r="N81" s="100"/>
-      <c r="O81" s="99"/>
-      <c r="P81" s="99"/>
-      <c r="Q81" s="99"/>
-      <c r="R81" s="99"/>
+      <c r="N81" s="103"/>
+      <c r="O81" s="102"/>
+      <c r="P81" s="102"/>
+      <c r="Q81" s="102"/>
+      <c r="R81" s="102"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
@@ -5360,29 +5367,29 @@
       <c r="X86" s="6"/>
     </row>
     <row r="87" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B87" s="97" t="s">
+      <c r="B87" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="93"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="93"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="94"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="97" t="s">
+      <c r="H87" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="I87" s="92"/>
-      <c r="J87" s="92"/>
-      <c r="K87" s="92"/>
-      <c r="L87" s="93"/>
+      <c r="I87" s="93"/>
+      <c r="J87" s="93"/>
+      <c r="K87" s="93"/>
+      <c r="L87" s="94"/>
       <c r="M87" s="6"/>
-      <c r="O87" s="97" t="s">
+      <c r="O87" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="P87" s="92"/>
-      <c r="Q87" s="92"/>
-      <c r="R87" s="92"/>
-      <c r="S87" s="93"/>
+      <c r="P87" s="93"/>
+      <c r="Q87" s="93"/>
+      <c r="R87" s="93"/>
+      <c r="S87" s="94"/>
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
@@ -5852,11 +5859,11 @@
       <c r="S100" s="6"/>
     </row>
     <row r="101" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B101" s="101"/>
-      <c r="C101" s="99"/>
-      <c r="D101" s="99"/>
-      <c r="E101" s="99"/>
-      <c r="F101" s="99"/>
+      <c r="B101" s="104"/>
+      <c r="C101" s="102"/>
+      <c r="D101" s="102"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="102"/>
       <c r="G101" s="6"/>
       <c r="H101" s="59"/>
       <c r="I101" s="6"/>
@@ -5887,29 +5894,29 @@
       <c r="S102" s="6"/>
     </row>
     <row r="103" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B103" s="97" t="s">
+      <c r="B103" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="93"/>
+      <c r="C103" s="93"/>
+      <c r="D103" s="93"/>
+      <c r="E103" s="93"/>
+      <c r="F103" s="94"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="97" t="s">
+      <c r="H103" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="I103" s="92"/>
-      <c r="J103" s="92"/>
-      <c r="K103" s="92"/>
-      <c r="L103" s="93"/>
+      <c r="I103" s="93"/>
+      <c r="J103" s="93"/>
+      <c r="K103" s="93"/>
+      <c r="L103" s="94"/>
       <c r="M103" s="1"/>
-      <c r="O103" s="97" t="s">
+      <c r="O103" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="P103" s="92"/>
-      <c r="Q103" s="92"/>
-      <c r="R103" s="92"/>
-      <c r="S103" s="93"/>
+      <c r="P103" s="93"/>
+      <c r="Q103" s="93"/>
+      <c r="R103" s="93"/>
+      <c r="S103" s="94"/>
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
@@ -6015,7 +6022,7 @@
       <c r="R105" s="81">
         <v>7</v>
       </c>
-      <c r="S105" s="104" t="s">
+      <c r="S105" s="91" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6322,13 +6329,13 @@
     <row r="117" spans="2:24" ht="15.75" customHeight="1"/>
     <row r="118" spans="2:24" ht="15.75" customHeight="1"/>
     <row r="119" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B119" s="91" t="s">
+      <c r="B119" s="100" t="s">
         <v>278</v>
       </c>
-      <c r="C119" s="92"/>
-      <c r="D119" s="92"/>
-      <c r="E119" s="92"/>
-      <c r="F119" s="93"/>
+      <c r="C119" s="93"/>
+      <c r="D119" s="93"/>
+      <c r="E119" s="93"/>
+      <c r="F119" s="94"/>
     </row>
     <row r="120" spans="2:24" ht="15.75" customHeight="1">
       <c r="B120" s="2" t="s">
@@ -6433,873 +6440,863 @@
       <c r="E128" s="7"/>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="130" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="131" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="132" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="133" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="134" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="135" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="136" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="137" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="138" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="139" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="140" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="141" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="142" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="143" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="144" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="145" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="146" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="147" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="148" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="149" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="150" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="151" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="152" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="153" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="154" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="155" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="156" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="157" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="158" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="159" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="160" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="161" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="162" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="163" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="164" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="165" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="166" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="167" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="168" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="169" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="170" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="171" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="172" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="173" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="174" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="175" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="176" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="177" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="178" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="179" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="180" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="181" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="182" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="183" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="184" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="185" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="186" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="187" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="188" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="189" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="190" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="191" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="192" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="193" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="194" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="195" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="196" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="197" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="198" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="199" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="200" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="201" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="202" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="203" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="204" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="205" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="206" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="207" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="208" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="209" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="210" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="211" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="212" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="213" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="214" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="215" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="216" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="217" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="218" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="219" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="220" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="221" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="222" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="223" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="224" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="225" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="226" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="227" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="228" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="229" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="230" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="231" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="232" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="233" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="234" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="235" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="236" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="237" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="238" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="239" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="240" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="241" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="242" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="243" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="244" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="245" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="246" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="247" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="248" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="249" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="250" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="251" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="252" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="253" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="254" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="255" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="256" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="257" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="258" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="259" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="260" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="261" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="262" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="263" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="264" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="265" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="266" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="267" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="268" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="269" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="270" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="271" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="272" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="273" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="274" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="275" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="276" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="277" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="278" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="279" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="280" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="281" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="282" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="283" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="284" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="285" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="286" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="287" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="288" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="289" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="290" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="291" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="292" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="293" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="294" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="295" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="296" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="297" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="298" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="299" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="300" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="301" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="302" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="303" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="304" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="305" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="306" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="307" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="308" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="309" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="310" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="311" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="312" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="313" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="314" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="315" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="316" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="317" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="318" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="319" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="320" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="321" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="322" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="323" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="324" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="325" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="326" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="327" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="328" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="329" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="330" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="331" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="332" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="333" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="334" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="335" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="336" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="337" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="338" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="339" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="340" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="341" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="342" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="343" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="344" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="345" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="346" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="347" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="348" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="349" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="350" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="351" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="352" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="353" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="354" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="355" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="356" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="357" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="358" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="359" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="360" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="361" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="362" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="363" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="364" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="365" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="366" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="367" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="368" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="369" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="370" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="371" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="372" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="373" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="374" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="375" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="376" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="377" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="378" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="379" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="380" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="381" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="382" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="383" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="384" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="385" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="386" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="387" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="388" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="389" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="390" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="391" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="392" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="393" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="394" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="395" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="396" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="397" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="398" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="399" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="400" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="401" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="402" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="403" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="404" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="405" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="406" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="407" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="408" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="409" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="410" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="411" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="412" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="413" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="414" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="415" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="416" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="417" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="418" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="419" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="420" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="421" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="422" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="423" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="424" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="425" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="426" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="427" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="428" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="429" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="430" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="431" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="432" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="433" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="434" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="435" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="436" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="437" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="438" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="439" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="440" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="441" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="442" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="443" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="444" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="445" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="446" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="447" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="448" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="449" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="450" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="451" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="452" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="453" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="454" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="455" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="456" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="457" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="458" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="459" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="460" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="461" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="462" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="463" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="464" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="465" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="466" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="467" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="468" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="469" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="470" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="471" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="472" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="473" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="474" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="475" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="476" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="477" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="478" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="479" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="480" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="481" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="482" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="483" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="484" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="485" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="486" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="487" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="488" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="489" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="490" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="491" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="492" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="493" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="494" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="495" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="496" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="497" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="498" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="499" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="500" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="501" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="502" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="503" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="504" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="505" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="506" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="507" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="508" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="509" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="510" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="511" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="512" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="513" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="514" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="515" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="516" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="517" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="518" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="519" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="520" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="521" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="522" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="523" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="524" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="525" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="526" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="527" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="528" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="529" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="530" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="531" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="532" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="533" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="534" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="535" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="536" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="537" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="538" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="539" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="540" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="541" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="542" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="543" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="544" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="545" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="546" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="547" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="548" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="549" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="550" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="551" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="552" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="553" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="554" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="555" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="556" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="557" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="558" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="559" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="560" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="561" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="562" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="563" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="564" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="565" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="566" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="567" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="568" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="569" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="570" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="571" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="572" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="573" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="574" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="575" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="576" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="577" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="578" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="579" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="580" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="581" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="582" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="583" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="584" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="585" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="586" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="587" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="588" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="589" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="590" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="591" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="592" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="593" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="594" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="595" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="596" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="597" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="598" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="599" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="600" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="601" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="602" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="603" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="604" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="605" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="606" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="607" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="608" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="609" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="610" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="611" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="612" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="613" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="614" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="615" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="616" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="617" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="618" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="619" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="620" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="621" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="622" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="623" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="624" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="625" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="626" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="627" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="628" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="629" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="630" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="631" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="632" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="633" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="634" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="635" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="636" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="637" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="638" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="639" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="640" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="641" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="642" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="643" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="644" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="645" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="646" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="647" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="648" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="649" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="650" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="651" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="652" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="653" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="654" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="655" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="656" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="657" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="658" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="659" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="660" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="661" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="662" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="663" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="664" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="665" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="666" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="667" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="668" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="669" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="670" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="671" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="672" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="673" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="674" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="675" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="676" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="677" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="678" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="679" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="680" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="681" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="682" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="683" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="684" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="685" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="686" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="687" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="688" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="689" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="690" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="691" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="692" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="693" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="694" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="695" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="696" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="697" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="698" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="699" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="700" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="701" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="702" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="703" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="704" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="705" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="706" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="707" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="708" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="709" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="710" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="711" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="712" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="713" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="714" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="715" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="716" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="717" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="718" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="719" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="720" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="721" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="722" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="723" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="724" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="725" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="726" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="727" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="728" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="729" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="730" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="731" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="732" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="733" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="734" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="735" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="736" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="737" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="738" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="739" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="740" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="741" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="742" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="743" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="744" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="745" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="746" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="747" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="748" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="749" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="750" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="751" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="752" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="753" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="754" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="755" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="756" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="757" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="758" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="759" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="760" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="761" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="762" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="763" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="764" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="765" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="766" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="767" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="768" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="769" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="770" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="771" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="772" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="773" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="774" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="775" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="776" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="777" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="778" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="779" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="780" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="781" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="782" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="783" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="784" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="785" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="786" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="787" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="788" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="789" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="790" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="791" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="792" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="793" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="794" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="795" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="796" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="797" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="798" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="799" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="800" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="801" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="802" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="803" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="804" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="805" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="806" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="807" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="808" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="809" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="810" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="811" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="812" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="813" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="814" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="815" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="816" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="817" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="818" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="819" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="820" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="821" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="822" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="823" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="824" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="825" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="826" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="827" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="828" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="829" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="830" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="831" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="832" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="833" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="834" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="835" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="836" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="837" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="838" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="839" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="840" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="841" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="842" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="843" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="844" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="845" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="846" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="847" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="848" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="849" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="850" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="851" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="852" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="853" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="854" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="855" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="856" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="857" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="858" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="859" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="860" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="861" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="862" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="863" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="864" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="865" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="866" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="867" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="868" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="869" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="870" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="871" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="872" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="873" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="874" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="875" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="876" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="877" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="878" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="879" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="880" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="881" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="882" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="883" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="884" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="885" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="886" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="887" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="888" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="889" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="890" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="891" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="892" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="893" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="894" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="895" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="896" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="897" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="898" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="899" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="900" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="901" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="902" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="903" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="904" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="905" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="906" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="907" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="908" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="909" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="910" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="911" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="912" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="913" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="914" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="915" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="916" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="917" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="918" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="919" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="920" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="921" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="922" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="923" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="924" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="925" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="926" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="927" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="928" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="929" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="930" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="931" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="932" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="933" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="934" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="935" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="936" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="937" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="938" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="939" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="940" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="941" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="942" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="943" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="944" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="945" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="946" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="947" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="948" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="949" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="950" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="951" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="952" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="953" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="954" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="955" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="956" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="957" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="958" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="959" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="960" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="961" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="962" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="963" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="964" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="965" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="966" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="967" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="968" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="969" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="970" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="971" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="972" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="973" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="974" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="975" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="976" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="977" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="978" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="979" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="980" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="981" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="982" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="983" spans="2:19" ht="15.75" customHeight="1"/>
-    <row r="984" spans="2:19" ht="15" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="U41:Y41"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="H41:L41"/>
     <mergeCell ref="B119:F119"/>
     <mergeCell ref="B62:F62"/>
     <mergeCell ref="H62:L62"/>
@@ -7313,6 +7310,15 @@
     <mergeCell ref="B103:F103"/>
     <mergeCell ref="H103:L103"/>
     <mergeCell ref="O103:S103"/>
+    <mergeCell ref="O41:S41"/>
+    <mergeCell ref="U41:Y41"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="H41:L41"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/src/test/DB/table.xlsx
+++ b/src/test/DB/table.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\git\Leggo_final\src\test\DB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21630" windowHeight="14895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhBL5vhRAU0la7TiVTN+9ByDT8zhQ=="/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="299">
   <si>
     <t>주차장</t>
   </si>
@@ -1283,25 +1279,13 @@
     </r>
   </si>
   <si>
-    <t>자유게시판</t>
-  </si>
-  <si>
     <t>리뷰</t>
   </si>
   <si>
-    <t>댓글</t>
-  </si>
-  <si>
-    <t>자유게시판 번호</t>
-  </si>
-  <si>
     <t>리뷰 번호</t>
   </si>
   <si>
     <t>review_num</t>
-  </si>
-  <si>
-    <t>자유 게시판 번호</t>
   </si>
   <si>
     <t>댓글 번호</t>
@@ -1405,12 +1389,6 @@
     </r>
   </si>
   <si>
-    <t>이미지</t>
-  </si>
-  <si>
-    <t>게시판 번호</t>
-  </si>
-  <si>
     <t>brd_type_num</t>
   </si>
   <si>
@@ -1439,11 +1417,11 @@
       </rPr>
       <t xml:space="preserve"> URL</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>content_url</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1459,27 +1437,15 @@
       </rPr>
       <t xml:space="preserve"> 번호</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
-    <t>free_brd_type_num</t>
-    <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
-    <t>free_brd_num</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>varchar2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>FK(회원)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1495,18 +1461,277 @@
       </rPr>
       <t>자유게시판)</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>brd_type_num</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 번호</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고유번호</t>
+    </r>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자유게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고유번호</t>
+    </r>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>brd_num</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>brd_type</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>varchar2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FK(type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>type 테이블</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4285F4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">img </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4285F4"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">freeboard </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>cmt</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FK(type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="42">
+  <fonts count="47">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1676,12 +1901,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF4285F4"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="4"/>
       <name val="돋움"/>
       <family val="3"/>
@@ -1753,6 +1972,44 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4285F4"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4285F4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1891,7 +2148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2050,7 +2307,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2061,34 +2317,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2099,6 +2349,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2319,10 +2593,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:Y983"/>
+  <dimension ref="B1:Y984"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="P108" sqref="P108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2346,29 +2620,29 @@
     <row r="2" spans="2:24" ht="15.75" customHeight="1"/>
     <row r="3" spans="2:24" ht="15.75" customHeight="1"/>
     <row r="4" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="93"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="94"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93"/>
       <c r="M4" s="1"/>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="94"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="93"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -2918,8 +3192,8 @@
       <c r="C17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="86" t="s">
-        <v>292</v>
+      <c r="D17" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E17" s="15">
         <v>15</v>
@@ -3193,21 +3467,21 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="94"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="93"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="92" t="s">
+      <c r="H26" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="94"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="93"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -3714,37 +3988,37 @@
       <c r="X40" s="6"/>
     </row>
     <row r="41" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="98"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="96"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="99" t="s">
+      <c r="H41" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="98"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="96"/>
       <c r="M41" s="1"/>
-      <c r="O41" s="92" t="s">
+      <c r="O41" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="93"/>
-      <c r="S41" s="94"/>
+      <c r="P41" s="92"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="93"/>
       <c r="T41" s="1"/>
-      <c r="U41" s="92" t="s">
+      <c r="U41" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="V41" s="93"/>
-      <c r="W41" s="93"/>
-      <c r="X41" s="93"/>
-      <c r="Y41" s="94"/>
+      <c r="V41" s="92"/>
+      <c r="W41" s="92"/>
+      <c r="X41" s="92"/>
+      <c r="Y41" s="93"/>
     </row>
     <row r="42" spans="2:25" ht="15.75" customHeight="1">
       <c r="B42" s="2" t="s">
@@ -4531,29 +4805,29 @@
       <c r="X61" s="6"/>
     </row>
     <row r="62" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B62" s="96" t="s">
+      <c r="B62" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="98"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="95"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="96"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="96" t="s">
+      <c r="H62" s="94" t="s">
         <v>167</v>
       </c>
-      <c r="I62" s="97"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="97"/>
-      <c r="L62" s="97"/>
+      <c r="I62" s="95"/>
+      <c r="J62" s="95"/>
+      <c r="K62" s="95"/>
+      <c r="L62" s="95"/>
       <c r="M62" s="53"/>
-      <c r="O62" s="92" t="s">
+      <c r="O62" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="93"/>
-      <c r="R62" s="93"/>
-      <c r="S62" s="94"/>
+      <c r="P62" s="92"/>
+      <c r="Q62" s="92"/>
+      <c r="R62" s="92"/>
+      <c r="S62" s="93"/>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
@@ -4722,11 +4996,11 @@
       <c r="S65" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T65" s="101"/>
-      <c r="U65" s="102"/>
-      <c r="V65" s="102"/>
-      <c r="W65" s="102"/>
-      <c r="X65" s="102"/>
+      <c r="T65" s="98"/>
+      <c r="U65" s="99"/>
+      <c r="V65" s="99"/>
+      <c r="W65" s="99"/>
+      <c r="X65" s="99"/>
     </row>
     <row r="66" spans="2:25" ht="15.75" customHeight="1">
       <c r="B66" s="55" t="s">
@@ -4840,7 +5114,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="6"/>
@@ -5239,11 +5513,11 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
-      <c r="N81" s="103"/>
-      <c r="O81" s="102"/>
-      <c r="P81" s="102"/>
-      <c r="Q81" s="102"/>
-      <c r="R81" s="102"/>
+      <c r="N81" s="100"/>
+      <c r="O81" s="99"/>
+      <c r="P81" s="99"/>
+      <c r="Q81" s="99"/>
+      <c r="R81" s="99"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
@@ -5367,29 +5641,29 @@
       <c r="X86" s="6"/>
     </row>
     <row r="87" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B87" s="92" t="s">
+      <c r="B87" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="C87" s="93"/>
-      <c r="D87" s="93"/>
-      <c r="E87" s="93"/>
-      <c r="F87" s="94"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="93"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="92" t="s">
+      <c r="H87" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="I87" s="93"/>
-      <c r="J87" s="93"/>
-      <c r="K87" s="93"/>
-      <c r="L87" s="94"/>
+      <c r="I87" s="92"/>
+      <c r="J87" s="92"/>
+      <c r="K87" s="92"/>
+      <c r="L87" s="93"/>
       <c r="M87" s="6"/>
-      <c r="O87" s="92" t="s">
+      <c r="O87" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="P87" s="93"/>
-      <c r="Q87" s="93"/>
-      <c r="R87" s="93"/>
-      <c r="S87" s="94"/>
+      <c r="P87" s="92"/>
+      <c r="Q87" s="92"/>
+      <c r="R87" s="92"/>
+      <c r="S87" s="93"/>
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
@@ -5859,11 +6133,11 @@
       <c r="S100" s="6"/>
     </row>
     <row r="101" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B101" s="104"/>
-      <c r="C101" s="102"/>
-      <c r="D101" s="102"/>
-      <c r="E101" s="102"/>
-      <c r="F101" s="102"/>
+      <c r="B101" s="101"/>
+      <c r="C101" s="99"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
       <c r="G101" s="6"/>
       <c r="H101" s="59"/>
       <c r="I101" s="6"/>
@@ -5894,29 +6168,29 @@
       <c r="S102" s="6"/>
     </row>
     <row r="103" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B103" s="92" t="s">
+      <c r="B103" s="111" t="s">
+        <v>295</v>
+      </c>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="93"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="C103" s="93"/>
-      <c r="D103" s="93"/>
-      <c r="E103" s="93"/>
-      <c r="F103" s="94"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="I103" s="93"/>
-      <c r="J103" s="93"/>
-      <c r="K103" s="93"/>
-      <c r="L103" s="94"/>
+      <c r="I103" s="92"/>
+      <c r="J103" s="92"/>
+      <c r="K103" s="92"/>
+      <c r="L103" s="93"/>
       <c r="M103" s="1"/>
-      <c r="O103" s="92" t="s">
-        <v>264</v>
-      </c>
-      <c r="P103" s="93"/>
-      <c r="Q103" s="93"/>
-      <c r="R103" s="93"/>
-      <c r="S103" s="94"/>
+      <c r="O103" s="111" t="s">
+        <v>296</v>
+      </c>
+      <c r="P103" s="92"/>
+      <c r="Q103" s="92"/>
+      <c r="R103" s="92"/>
+      <c r="S103" s="93"/>
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
@@ -5978,27 +6252,27 @@
       <c r="X104" s="6"/>
     </row>
     <row r="105" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B105" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C105" s="88" t="s">
+      <c r="B105" s="86" t="s">
         <v>286</v>
+      </c>
+      <c r="C105" s="87" t="s">
+        <v>283</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E105" s="7">
-        <v>7</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="F105" s="88" t="s">
+        <v>297</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="33" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>27</v>
@@ -6010,37 +6284,37 @@
         <v>11</v>
       </c>
       <c r="M105" s="6"/>
-      <c r="O105" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="P105" s="90" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q105" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="R105" s="81">
-        <v>7</v>
-      </c>
-      <c r="S105" s="91" t="s">
+      <c r="O105" s="91" t="s">
+        <v>284</v>
+      </c>
+      <c r="P105" s="89" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q105" s="89" t="s">
         <v>291</v>
       </c>
+      <c r="R105" s="80">
+        <v>10</v>
+      </c>
+      <c r="S105" s="90" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="106" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B106" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="C106" s="88" t="s">
+      <c r="B106" s="86" t="s">
+        <v>279</v>
+      </c>
+      <c r="C106" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="D106" s="88" t="s">
-        <v>288</v>
+      <c r="D106" s="87" t="s">
+        <v>280</v>
       </c>
       <c r="E106" s="22">
-        <v>60</v>
-      </c>
-      <c r="F106" s="89" t="s">
-        <v>289</v>
+        <v>10</v>
+      </c>
+      <c r="F106" s="88" t="s">
+        <v>298</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="33" t="s">
@@ -6060,10 +6334,10 @@
       </c>
       <c r="M106" s="6"/>
       <c r="O106" s="33" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P106" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q106" s="6" t="s">
         <v>27</v>
@@ -6112,7 +6386,7 @@
         <v>237</v>
       </c>
       <c r="P107" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q107" s="6" t="s">
         <v>10</v>
@@ -6121,7 +6395,7 @@
         <v>500</v>
       </c>
       <c r="S107" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="108" spans="2:24" ht="15.75" customHeight="1">
@@ -6165,8 +6439,8 @@
       <c r="R108" s="7">
         <v>20</v>
       </c>
-      <c r="S108" s="89" t="s">
-        <v>290</v>
+      <c r="S108" s="88" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="109" spans="2:24" ht="15.75" customHeight="1">
@@ -6205,7 +6479,7 @@
         <v>240</v>
       </c>
       <c r="Q109" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="R109" s="15"/>
       <c r="S109" s="16"/>
@@ -6243,7 +6517,7 @@
     </row>
     <row r="111" spans="2:24" ht="15.75" customHeight="1">
       <c r="B111" s="76" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>254</v>
@@ -6257,10 +6531,10 @@
       <c r="F111" s="16"/>
       <c r="G111" s="6"/>
       <c r="H111" s="33" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J111" s="6" t="s">
         <v>27</v>
@@ -6292,15 +6566,15 @@
     </row>
     <row r="113" spans="2:24" ht="15.75" customHeight="1">
       <c r="H113" s="76" t="s">
-        <v>277</v>
-      </c>
-      <c r="I113" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="I113" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="J113" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="K113" s="83">
+      <c r="J113" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="K113" s="82">
         <v>60</v>
       </c>
       <c r="L113" s="75"/>
@@ -6329,13 +6603,13 @@
     <row r="117" spans="2:24" ht="15.75" customHeight="1"/>
     <row r="118" spans="2:24" ht="15.75" customHeight="1"/>
     <row r="119" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B119" s="100" t="s">
-        <v>278</v>
-      </c>
-      <c r="C119" s="93"/>
-      <c r="D119" s="93"/>
-      <c r="E119" s="93"/>
-      <c r="F119" s="94"/>
+      <c r="B119" s="104" t="s">
+        <v>294</v>
+      </c>
+      <c r="C119" s="92"/>
+      <c r="D119" s="92"/>
+      <c r="E119" s="92"/>
+      <c r="F119" s="93"/>
     </row>
     <row r="120" spans="2:24" ht="15.75" customHeight="1">
       <c r="B120" s="2" t="s">
@@ -6355,45 +6629,45 @@
       </c>
     </row>
     <row r="121" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B121" s="84" t="s">
-        <v>279</v>
+      <c r="B121" s="86" t="s">
+        <v>285</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E121" s="7">
-        <v>7</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="F121" s="88" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="122" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B122" s="84" t="s">
-        <v>281</v>
+      <c r="B122" s="83" t="s">
+        <v>275</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E122" s="7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="123" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B123" s="85" t="s">
-        <v>283</v>
-      </c>
-      <c r="C123" s="86" t="s">
-        <v>284</v>
+      <c r="B123" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="C123" s="85" t="s">
+        <v>278</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>10</v>
@@ -6405,898 +6679,941 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="2:24" ht="15.75" customHeight="1">
+    <row r="124" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="B124" s="59"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="7"/>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B125" s="59"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="6"/>
+    <row r="125" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B125" s="110" t="s">
+        <v>293</v>
+      </c>
+      <c r="C125" s="92"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="92"/>
+      <c r="F125" s="93"/>
     </row>
     <row r="126" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B126" s="59"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="6"/>
+      <c r="B126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="127" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B127" s="59"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="6"/>
-    </row>
-    <row r="128" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B128" s="59"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="6"/>
-    </row>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
+      <c r="B127" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127" s="22">
+        <v>3</v>
+      </c>
+      <c r="F127" s="88" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="128" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B128" s="108" t="s">
+        <v>290</v>
+      </c>
+      <c r="C128" s="105" t="s">
+        <v>289</v>
+      </c>
+      <c r="D128" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="107">
+        <v>10</v>
+      </c>
+      <c r="F128" s="109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="130" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="131" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="132" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="133" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="134" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="135" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="136" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="137" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="138" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="139" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="140" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="141" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="142" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="143" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="144" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="145" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="146" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="147" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="148" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="149" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="150" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="151" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="152" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="153" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="154" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="155" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="156" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="157" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="158" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="159" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="160" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="161" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="162" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="163" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="164" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="165" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="166" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="167" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="168" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="169" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="170" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="171" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="172" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="173" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="174" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="175" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="176" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="177" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="178" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="179" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="180" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="181" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="182" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="183" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="184" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="185" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="186" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="187" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="188" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="189" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="190" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="191" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="192" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="193" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="194" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="195" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="196" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="197" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="198" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="199" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="200" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="201" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="202" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="203" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="204" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="205" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="206" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="207" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="208" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="209" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="210" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="211" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="212" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="213" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="214" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="215" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="216" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="217" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="218" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="219" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="220" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="221" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="222" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="223" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="224" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="225" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="226" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="227" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="228" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="229" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="230" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="231" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="232" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="233" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="234" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="235" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="236" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="237" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="238" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="239" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="240" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="241" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="242" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="243" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="244" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="245" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="246" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="247" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="248" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="249" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="250" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="251" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="252" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="253" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="254" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="255" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="256" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="257" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="258" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="259" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="260" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="261" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="262" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="263" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="264" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="265" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="266" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="267" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="268" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="269" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="270" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="271" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="272" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="273" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="274" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="275" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="276" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="277" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="278" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="279" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="280" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="281" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="282" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="283" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="284" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="285" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="286" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="287" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="288" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="289" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="290" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="291" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="292" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="293" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="294" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="295" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="296" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="297" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="298" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="299" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="300" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="301" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="302" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="303" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="304" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="305" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="306" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="307" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="308" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="309" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="310" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="311" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="312" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="313" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="314" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="315" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="316" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="317" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="318" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="319" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="320" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="321" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="322" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="323" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="324" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="325" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="326" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="327" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="328" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="329" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="330" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="331" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="332" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="333" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="334" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="335" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="336" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="337" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="338" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="339" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="340" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="341" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="342" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="343" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="344" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="345" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="346" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="347" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="348" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="349" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="350" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="351" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="352" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="353" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="354" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="355" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="356" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="357" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="358" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="359" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="360" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="361" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="362" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="363" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="364" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="365" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="366" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="367" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="368" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="369" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="370" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="371" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="372" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="373" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="374" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="375" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="376" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="377" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="378" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="379" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="380" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="381" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="382" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="383" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="384" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="385" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="386" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="387" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="388" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="389" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="390" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="391" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="392" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="393" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="394" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="395" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="396" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="397" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="398" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="399" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="400" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="401" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="402" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="403" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="404" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="405" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="406" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="407" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="408" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="409" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="410" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="411" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="412" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="413" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="414" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="415" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="416" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="417" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="418" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="419" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="420" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="421" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="422" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="423" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="424" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="425" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="426" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="427" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="428" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="429" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="430" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="431" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="432" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="433" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="434" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="435" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="436" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="437" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="438" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="439" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="440" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="441" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="442" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="443" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="444" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="445" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="446" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="447" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="448" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="449" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="450" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="451" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="452" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="453" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="454" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="455" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="456" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="457" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="458" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="459" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="460" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="461" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="462" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="463" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="464" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="465" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="466" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="467" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="468" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="469" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="470" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="471" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="472" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="473" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="474" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="475" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="476" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="477" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="478" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="479" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="480" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="481" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="482" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="483" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="484" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="485" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="486" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="487" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="488" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="489" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="490" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="491" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="492" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="493" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="494" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="495" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="496" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="497" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="498" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="499" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="500" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="501" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="502" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="503" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="504" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="505" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="506" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="507" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="508" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="509" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="510" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="511" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="512" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="513" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="514" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="515" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="516" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="517" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="518" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="519" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="520" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="521" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="522" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="523" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="524" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="525" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="526" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="527" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="528" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="529" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="530" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="531" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="532" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="533" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="534" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="535" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="536" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="537" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="538" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="539" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="540" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="541" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="542" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="543" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="544" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="545" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="546" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="547" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="548" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="549" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="550" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="551" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="552" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="553" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="554" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="555" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="556" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="557" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="558" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="559" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="560" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="561" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="562" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="563" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="564" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="565" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="566" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="567" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="568" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="569" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="570" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="571" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="572" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="573" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="574" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="575" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="576" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="577" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="578" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="579" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="580" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="581" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="582" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="583" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="584" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="585" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="586" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="587" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="588" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="589" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="590" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="591" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="592" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="593" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="594" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="595" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="596" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="597" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="598" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="599" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="600" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="601" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="602" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="603" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="604" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="605" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="606" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="607" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="608" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="609" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="610" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="611" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="612" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="613" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="614" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="615" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="616" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="617" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="618" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="619" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="620" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="621" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="622" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="623" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="624" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="625" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="626" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="627" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="628" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="629" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="630" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="631" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="632" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="633" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="634" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="635" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="636" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="637" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="638" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="639" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="640" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="641" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="642" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="643" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="644" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="645" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="646" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="647" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="648" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="649" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="650" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="651" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="652" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="653" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="654" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="655" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="656" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="657" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="658" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="659" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="660" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="661" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="662" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="663" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="664" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="665" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="666" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="667" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="668" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="669" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="670" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="671" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="672" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="673" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="674" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="675" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="676" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="677" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="678" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="679" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="680" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="681" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="682" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="683" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="684" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="685" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="686" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="687" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="688" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="689" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="690" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="691" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="692" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="693" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="694" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="695" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="696" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="697" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="698" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="699" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="700" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="701" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="702" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="703" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="704" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="705" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="706" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="707" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="708" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="709" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="710" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="711" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="712" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="713" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="714" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="715" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="716" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="717" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="718" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="719" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="720" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="721" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="722" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="723" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="724" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="725" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="726" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="727" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="728" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="729" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="730" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="731" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="732" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="733" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="734" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="735" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="736" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="737" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="738" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="739" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="740" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="741" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="742" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="743" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="744" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="745" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="746" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="747" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="748" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="749" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="750" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="751" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="752" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="753" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="754" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="755" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="756" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="757" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="758" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="759" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="760" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="761" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="762" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="763" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="764" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="765" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="766" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="767" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="768" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="769" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="770" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="771" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="772" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="773" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="774" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="775" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="776" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="777" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="778" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="779" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="780" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="781" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="782" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="783" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="784" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="785" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="786" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="787" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="788" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="789" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="790" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="791" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="792" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="793" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="794" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="795" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="796" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="797" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="798" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="799" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="800" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="801" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="802" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="803" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="804" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="805" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="806" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="807" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="808" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="809" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="810" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="811" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="812" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="813" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="814" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="815" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="816" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="817" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="818" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="819" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="820" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="821" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="822" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="823" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="824" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="825" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="826" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="827" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="828" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="829" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="830" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="831" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="832" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="833" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="834" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="835" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="836" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="837" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="838" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="839" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="840" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="841" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="842" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="843" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="844" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="845" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="846" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="847" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="848" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="849" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="850" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="851" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="852" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="853" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="854" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="855" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="856" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="857" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="858" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="859" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="860" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="861" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="862" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="863" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="864" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="865" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="866" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="867" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="868" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="869" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="870" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="871" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="872" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="873" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="874" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="875" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="876" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="877" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="878" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="879" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="880" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="881" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="882" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="883" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="884" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="885" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="886" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="887" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="888" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="889" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="890" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="891" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="892" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="893" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="894" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="895" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="896" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="897" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="898" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="899" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="900" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="901" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="902" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="903" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="904" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="905" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="906" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="907" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="908" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="909" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="910" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="911" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="912" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="913" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="914" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="915" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="916" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="917" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="918" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="919" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="920" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="921" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="922" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="923" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="924" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="925" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="926" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="927" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="928" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="929" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="930" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="931" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="932" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="933" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="934" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="935" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="936" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="937" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="938" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="939" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="940" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="941" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="942" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="943" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="944" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="945" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="946" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="947" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="948" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="949" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="950" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="951" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="952" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="953" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="954" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="955" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="956" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="957" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="958" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="959" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="960" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="961" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="962" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="963" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="964" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="965" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="966" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="967" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="968" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="969" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="970" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="971" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="972" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="973" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="974" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="975" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="976" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="977" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="978" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="979" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="980" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="981" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="982" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="983" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="984" spans="2:19" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="O41:S41"/>
+    <mergeCell ref="U41:Y41"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="H41:L41"/>
     <mergeCell ref="B119:F119"/>
     <mergeCell ref="B62:F62"/>
     <mergeCell ref="H62:L62"/>
@@ -7310,17 +7627,8 @@
     <mergeCell ref="B103:F103"/>
     <mergeCell ref="H103:L103"/>
     <mergeCell ref="O103:S103"/>
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="U41:Y41"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="H41:L41"/>
   </mergeCells>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/test/DB/table.xlsx
+++ b/src/test/DB/table.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="296">
   <si>
     <t>주차장</t>
   </si>
@@ -1794,6 +1794,10 @@
   </si>
   <si>
     <t>전화번호</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
@@ -2487,38 +2491,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2527,11 +2499,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2547,12 +2514,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2562,9 +2523,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2582,14 +2540,60 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2810,8 +2814,8 @@
   </sheetPr>
   <dimension ref="B1:Y983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2834,36 +2838,36 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="112"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="136"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="133"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="97" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="1"/>
@@ -2884,19 +2888,19 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="111" t="s">
         <v>291</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="129">
+      <c r="D4" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="110">
         <v>7</v>
       </c>
-      <c r="F4" s="132" t="s">
+      <c r="F4" s="112" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="6"/>
@@ -2921,19 +2925,19 @@
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="109">
+      <c r="D5" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="95">
         <v>100</v>
       </c>
-      <c r="F5" s="117"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="6"/>
       <c r="H5" s="30" t="s">
         <v>109</v>
@@ -2958,19 +2962,19 @@
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="109">
+      <c r="D6" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="95">
         <v>200</v>
       </c>
-      <c r="F6" s="117"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="6"/>
       <c r="H6" s="36" t="s">
         <v>126</v>
@@ -2995,19 +2999,19 @@
       <c r="X6" s="6"/>
     </row>
     <row r="7" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="109">
+      <c r="D7" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="95">
         <v>3</v>
       </c>
-      <c r="F7" s="135"/>
+      <c r="F7" s="115"/>
       <c r="G7" s="6"/>
       <c r="H7" s="36" t="s">
         <v>131</v>
@@ -3032,19 +3036,19 @@
       <c r="X7" s="6"/>
     </row>
     <row r="8" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="114" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="109">
+      <c r="D8" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="95">
         <v>50</v>
       </c>
-      <c r="F8" s="135"/>
+      <c r="F8" s="115"/>
       <c r="G8" s="6"/>
       <c r="H8" s="40" t="s">
         <v>135</v>
@@ -3065,19 +3069,19 @@
       <c r="X8" s="6"/>
     </row>
     <row r="9" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="109">
+      <c r="D9" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="95">
         <v>3</v>
       </c>
-      <c r="F9" s="117"/>
+      <c r="F9" s="100"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -3098,27 +3102,27 @@
       <c r="X9" s="6"/>
     </row>
     <row r="10" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="109">
+      <c r="D10" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="95">
         <v>100</v>
       </c>
-      <c r="F10" s="117"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="130"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -3133,19 +3137,19 @@
       <c r="X10" s="6"/>
     </row>
     <row r="11" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="116" t="s">
         <v>294</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="109">
+      <c r="E11" s="95">
         <v>15</v>
       </c>
-      <c r="F11" s="117"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="6"/>
       <c r="H11" s="2" t="s">
         <v>3</v>
@@ -3176,19 +3180,19 @@
       <c r="X11" s="6"/>
     </row>
     <row r="12" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="117"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="6"/>
       <c r="H12" s="77" t="s">
         <v>110</v>
@@ -3217,19 +3221,19 @@
       <c r="X12" s="6"/>
     </row>
     <row r="13" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="138" t="s">
+      <c r="D13" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="139" t="s">
+      <c r="E13" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="140"/>
+      <c r="F13" s="120"/>
       <c r="G13" s="6"/>
       <c r="H13" s="77" t="s">
         <v>109</v>
@@ -3293,13 +3297,13 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="123"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="130"/>
       <c r="G15" s="6"/>
       <c r="H15" s="36" t="s">
         <v>126</v>
@@ -3375,19 +3379,19 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="125" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="126">
+      <c r="D17" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="107">
         <v>7</v>
       </c>
-      <c r="F17" s="127" t="s">
+      <c r="F17" s="108" t="s">
         <v>81</v>
       </c>
       <c r="G17" s="6"/>
@@ -3424,13 +3428,13 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="99" t="s">
+      <c r="H18" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="98"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="142"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -3693,13 +3697,13 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="144"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="139"/>
       <c r="G26" s="6"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -3715,19 +3719,19 @@
       <c r="X26" s="1"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="106" t="s">
+      <c r="D27" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="107" t="s">
+      <c r="E27" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="114" t="s">
+      <c r="F27" s="97" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="6"/>
@@ -3740,19 +3744,19 @@
       <c r="X27" s="1"/>
     </row>
     <row r="28" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="141" t="s">
+      <c r="C28" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="141" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="142">
+      <c r="D28" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="122">
         <v>7</v>
       </c>
-      <c r="F28" s="146" t="s">
+      <c r="F28" s="124" t="s">
         <v>290</v>
       </c>
       <c r="G28" s="6"/>
@@ -3765,19 +3769,19 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B29" s="133" t="s">
+      <c r="B29" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="109">
+      <c r="D29" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="95">
         <v>1</v>
       </c>
-      <c r="F29" s="117"/>
+      <c r="F29" s="100"/>
       <c r="G29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -3788,19 +3792,19 @@
       <c r="X29" s="6"/>
     </row>
     <row r="30" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B30" s="133" t="s">
+      <c r="B30" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="109">
+      <c r="D30" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="95">
         <v>30</v>
       </c>
-      <c r="F30" s="117"/>
+      <c r="F30" s="100"/>
       <c r="G30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -3811,19 +3815,19 @@
       <c r="X30" s="6"/>
     </row>
     <row r="31" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B31" s="133" t="s">
+      <c r="B31" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="108" t="s">
+      <c r="C31" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="109">
+      <c r="D31" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="95">
         <v>3</v>
       </c>
-      <c r="F31" s="117"/>
+      <c r="F31" s="100"/>
       <c r="G31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -3834,19 +3838,19 @@
       <c r="X31" s="6"/>
     </row>
     <row r="32" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B32" s="133" t="s">
+      <c r="B32" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="108" t="s">
+      <c r="C32" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="109">
+      <c r="D32" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="95">
         <v>60</v>
       </c>
-      <c r="F32" s="117"/>
+      <c r="F32" s="100"/>
       <c r="G32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -3857,19 +3861,19 @@
       <c r="X32" s="6"/>
     </row>
     <row r="33" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B33" s="133" t="s">
+      <c r="B33" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="109">
+      <c r="D33" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="95">
         <v>3</v>
       </c>
-      <c r="F33" s="117"/>
+      <c r="F33" s="100"/>
       <c r="G33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -3880,19 +3884,19 @@
       <c r="X33" s="6"/>
     </row>
     <row r="34" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B34" s="133" t="s">
+      <c r="B34" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="108" t="s">
+      <c r="C34" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="109">
+      <c r="D34" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="95">
         <v>30</v>
       </c>
-      <c r="F34" s="117"/>
+      <c r="F34" s="100"/>
       <c r="G34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
@@ -3903,19 +3907,19 @@
       <c r="X34" s="6"/>
     </row>
     <row r="35" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B35" s="133" t="s">
+      <c r="B35" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="108" t="s">
+      <c r="C35" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="109">
+      <c r="D35" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="95">
         <v>3</v>
       </c>
-      <c r="F35" s="117"/>
+      <c r="F35" s="100"/>
       <c r="G35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -3926,19 +3930,19 @@
       <c r="X35" s="6"/>
     </row>
     <row r="36" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B36" s="133" t="s">
+      <c r="B36" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="108" t="s">
+      <c r="C36" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="109">
+      <c r="D36" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="95">
         <v>30</v>
       </c>
-      <c r="F36" s="117"/>
+      <c r="F36" s="100"/>
       <c r="G36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -3949,19 +3953,19 @@
       <c r="X36" s="6"/>
     </row>
     <row r="37" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B37" s="133" t="s">
+      <c r="B37" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="108" t="s">
+      <c r="C37" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="108" t="s">
+      <c r="D37" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="109">
+      <c r="E37" s="95">
         <v>15</v>
       </c>
-      <c r="F37" s="117"/>
+      <c r="F37" s="100"/>
       <c r="G37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
@@ -3972,19 +3976,19 @@
       <c r="X37" s="6"/>
     </row>
     <row r="38" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B38" s="133" t="s">
+      <c r="B38" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="108" t="s">
+      <c r="C38" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="108" t="s">
+      <c r="D38" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="109">
+      <c r="E38" s="95">
         <v>15</v>
       </c>
-      <c r="F38" s="117"/>
+      <c r="F38" s="100"/>
       <c r="G38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
@@ -3995,19 +3999,19 @@
       <c r="X38" s="6"/>
     </row>
     <row r="39" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B39" s="133" t="s">
+      <c r="B39" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="108" t="s">
+      <c r="C39" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="108" t="s">
+      <c r="D39" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="109">
+      <c r="E39" s="95">
         <v>15</v>
       </c>
-      <c r="F39" s="117"/>
+      <c r="F39" s="100"/>
       <c r="G39" s="1"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -4018,19 +4022,19 @@
       <c r="X39" s="6"/>
     </row>
     <row r="40" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B40" s="133" t="s">
+      <c r="B40" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="108" t="s">
+      <c r="C40" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="108" t="s">
+      <c r="D40" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="109">
+      <c r="E40" s="95">
         <v>15</v>
       </c>
-      <c r="F40" s="117"/>
+      <c r="F40" s="100"/>
       <c r="G40" s="1"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
@@ -4041,109 +4045,109 @@
       <c r="X40" s="6"/>
     </row>
     <row r="41" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B41" s="133" t="s">
+      <c r="B41" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="108" t="s">
+      <c r="C41" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="108" t="s">
+      <c r="D41" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="109">
+      <c r="E41" s="95">
         <v>15</v>
       </c>
-      <c r="F41" s="117"/>
+      <c r="F41" s="100"/>
       <c r="G41" s="6"/>
       <c r="M41" s="1"/>
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B42" s="133" t="s">
+      <c r="B42" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="108" t="s">
+      <c r="C42" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="108" t="s">
+      <c r="D42" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="109">
+      <c r="E42" s="95">
         <v>15</v>
       </c>
-      <c r="F42" s="117"/>
+      <c r="F42" s="100"/>
       <c r="G42" s="6"/>
       <c r="M42" s="1"/>
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B43" s="133" t="s">
+      <c r="B43" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="108" t="s">
+      <c r="C43" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="108" t="s">
+      <c r="D43" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="109">
+      <c r="E43" s="95">
         <v>15</v>
       </c>
-      <c r="F43" s="117"/>
+      <c r="F43" s="100"/>
       <c r="G43" s="6"/>
       <c r="M43" s="6"/>
       <c r="T43" s="6"/>
     </row>
     <row r="44" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B44" s="133" t="s">
+      <c r="B44" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="108" t="s">
+      <c r="D44" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="109">
+      <c r="E44" s="95">
         <v>15</v>
       </c>
-      <c r="F44" s="117"/>
+      <c r="F44" s="100"/>
       <c r="G44" s="6"/>
       <c r="M44" s="6"/>
       <c r="T44" s="6"/>
     </row>
     <row r="45" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B45" s="133" t="s">
+      <c r="B45" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="108" t="s">
+      <c r="C45" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="108" t="s">
+      <c r="D45" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="109">
+      <c r="E45" s="95">
         <v>15</v>
       </c>
-      <c r="F45" s="117"/>
+      <c r="F45" s="100"/>
       <c r="G45" s="6"/>
       <c r="M45" s="6"/>
       <c r="T45" s="6"/>
     </row>
     <row r="46" spans="2:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B46" s="137" t="s">
+      <c r="B46" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="138" t="s">
+      <c r="C46" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="138" t="s">
+      <c r="D46" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="139">
+      <c r="E46" s="119">
         <v>15</v>
       </c>
-      <c r="F46" s="140"/>
+      <c r="F46" s="120"/>
       <c r="G46" s="6"/>
       <c r="M46" s="6"/>
       <c r="T46" s="6"/>
@@ -4158,13 +4162,13 @@
       <c r="T47" s="6"/>
     </row>
     <row r="48" spans="2:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B48" s="95" t="s">
+      <c r="B48" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="94"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="133"/>
       <c r="M48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
@@ -4208,19 +4212,19 @@
       <c r="X49" s="6"/>
     </row>
     <row r="50" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B50" s="124" t="s">
+      <c r="B50" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="125" t="s">
+      <c r="C50" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="125" t="s">
+      <c r="D50" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="126">
+      <c r="E50" s="107">
         <v>7</v>
       </c>
-      <c r="F50" s="127" t="s">
+      <c r="F50" s="108" t="s">
         <v>81</v>
       </c>
       <c r="M50" s="6"/>
@@ -4274,7 +4278,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="19">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F52" s="8"/>
       <c r="M52" s="6"/>
@@ -4351,10 +4355,12 @@
       <c r="C55" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="12"/>
+      <c r="D55" s="79" t="s">
+        <v>295</v>
+      </c>
+      <c r="E55" s="12">
+        <v>50</v>
+      </c>
       <c r="F55" s="13"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -4484,11 +4490,11 @@
     </row>
     <row r="65" spans="2:25" ht="15.75" customHeight="1">
       <c r="G65" s="6"/>
-      <c r="T65" s="101"/>
-      <c r="U65" s="102"/>
-      <c r="V65" s="102"/>
-      <c r="W65" s="102"/>
-      <c r="X65" s="102"/>
+      <c r="T65" s="125"/>
+      <c r="U65" s="126"/>
+      <c r="V65" s="126"/>
+      <c r="W65" s="126"/>
+      <c r="X65" s="126"/>
     </row>
     <row r="66" spans="2:25" ht="15.75" customHeight="1">
       <c r="G66" s="6"/>
@@ -4759,11 +4765,11 @@
       <c r="K81" s="65"/>
       <c r="L81" s="65"/>
       <c r="M81" s="6"/>
-      <c r="N81" s="103"/>
-      <c r="O81" s="102"/>
-      <c r="P81" s="102"/>
-      <c r="Q81" s="102"/>
-      <c r="R81" s="102"/>
+      <c r="N81" s="127"/>
+      <c r="O81" s="126"/>
+      <c r="P81" s="126"/>
+      <c r="Q81" s="126"/>
+      <c r="R81" s="126"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
@@ -4882,11 +4888,11 @@
       <c r="F94" s="6"/>
     </row>
     <row r="95" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B95" s="104"/>
-      <c r="C95" s="102"/>
-      <c r="D95" s="102"/>
-      <c r="E95" s="102"/>
-      <c r="F95" s="102"/>
+      <c r="B95" s="131"/>
+      <c r="C95" s="126"/>
+      <c r="D95" s="126"/>
+      <c r="E95" s="126"/>
+      <c r="F95" s="126"/>
     </row>
     <row r="96" spans="2:24" ht="15.75" customHeight="1">
       <c r="B96" s="73"/>
@@ -5874,9 +5880,6 @@
     <row r="983" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="B95:F95"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B26:F26"/>
@@ -5884,6 +5887,9 @@
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="T65:X65"/>
     <mergeCell ref="N81:R81"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="B95:F95"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5915,20 +5921,20 @@
   <sheetData>
     <row r="1" spans="2:12" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="98"/>
-      <c r="H2" s="95" t="s">
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="142"/>
+      <c r="H2" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="133"/>
     </row>
     <row r="3" spans="2:12" ht="15">
       <c r="B3" s="2" t="s">
@@ -6207,13 +6213,13 @@
       <c r="F12" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="96" t="s">
+      <c r="H12" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="98"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="142"/>
     </row>
     <row r="13" spans="2:12" ht="15">
       <c r="B13" s="5" t="s">
@@ -6449,207 +6455,207 @@
     </row>
     <row r="22" spans="2:12" ht="13.5" thickBot="1"/>
     <row r="23" spans="2:12" ht="15">
-      <c r="H23" s="110" t="s">
+      <c r="H23" s="137" t="s">
         <v>159</v>
       </c>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="112"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="136"/>
     </row>
     <row r="24" spans="2:12" ht="15">
-      <c r="H24" s="113" t="s">
+      <c r="H24" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="106" t="s">
+      <c r="I24" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="106" t="s">
+      <c r="J24" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="107" t="s">
+      <c r="K24" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="114" t="s">
+      <c r="L24" s="97" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="14.25">
-      <c r="H25" s="115" t="s">
+      <c r="H25" s="98" t="s">
         <v>163</v>
       </c>
-      <c r="I25" s="108" t="s">
+      <c r="I25" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="J25" s="108" t="s">
+      <c r="J25" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="109">
+      <c r="K25" s="95">
         <v>15</v>
       </c>
-      <c r="L25" s="116" t="s">
+      <c r="L25" s="99" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="14.25">
-      <c r="H26" s="115" t="s">
+      <c r="H26" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="I26" s="108" t="s">
+      <c r="I26" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="J26" s="108" t="s">
+      <c r="J26" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="109">
+      <c r="K26" s="95">
         <v>15</v>
       </c>
-      <c r="L26" s="116" t="s">
+      <c r="L26" s="99" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="14.25">
-      <c r="H27" s="115" t="s">
+      <c r="H27" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="108" t="s">
+      <c r="I27" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="J27" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="109"/>
-      <c r="L27" s="117" t="s">
+      <c r="J27" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="95"/>
+      <c r="L27" s="100" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="14.25">
-      <c r="H28" s="115" t="s">
+      <c r="H28" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="I28" s="108" t="s">
+      <c r="I28" s="94" t="s">
         <v>178</v>
       </c>
-      <c r="J28" s="108" t="s">
+      <c r="J28" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="K28" s="109">
-        <v>10</v>
-      </c>
-      <c r="L28" s="117" t="s">
+      <c r="K28" s="95">
+        <v>10</v>
+      </c>
+      <c r="L28" s="100" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="14.25">
-      <c r="H29" s="115" t="s">
+      <c r="H29" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="I29" s="108" t="s">
+      <c r="I29" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="J29" s="108" t="s">
+      <c r="J29" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="K29" s="109">
-        <v>10</v>
-      </c>
-      <c r="L29" s="117" t="s">
+      <c r="K29" s="95">
+        <v>10</v>
+      </c>
+      <c r="L29" s="100" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="14.25">
-      <c r="H30" s="115" t="s">
+      <c r="H30" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="I30" s="108" t="s">
+      <c r="I30" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="J30" s="108" t="s">
+      <c r="J30" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="K30" s="109"/>
-      <c r="L30" s="117"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="100"/>
     </row>
     <row r="31" spans="2:12" ht="14.25">
-      <c r="H31" s="115" t="s">
+      <c r="H31" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="I31" s="108" t="s">
+      <c r="I31" s="94" t="s">
         <v>196</v>
       </c>
-      <c r="J31" s="108" t="s">
+      <c r="J31" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="109">
-        <v>10</v>
-      </c>
-      <c r="L31" s="117" t="s">
+      <c r="K31" s="95">
+        <v>10</v>
+      </c>
+      <c r="L31" s="100" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="14.25">
-      <c r="H32" s="115" t="s">
+      <c r="H32" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="I32" s="108" t="s">
+      <c r="I32" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="J32" s="108" t="s">
+      <c r="J32" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="109">
-        <v>10</v>
-      </c>
-      <c r="L32" s="117" t="s">
+      <c r="K32" s="95">
+        <v>10</v>
+      </c>
+      <c r="L32" s="100" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="33" spans="8:12" ht="14.25">
-      <c r="H33" s="115" t="s">
+      <c r="H33" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="I33" s="108" t="s">
+      <c r="I33" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="J33" s="108" t="s">
+      <c r="J33" s="94" t="s">
         <v>208</v>
       </c>
-      <c r="K33" s="109">
-        <v>10</v>
-      </c>
-      <c r="L33" s="117" t="s">
+      <c r="K33" s="95">
+        <v>10</v>
+      </c>
+      <c r="L33" s="100" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="34" spans="8:12" ht="14.25">
-      <c r="H34" s="115" t="s">
+      <c r="H34" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="I34" s="108" t="s">
+      <c r="I34" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="J34" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="109">
+      <c r="J34" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="95">
         <v>20</v>
       </c>
-      <c r="L34" s="117"/>
+      <c r="L34" s="100"/>
     </row>
     <row r="35" spans="8:12" ht="15" thickBot="1">
-      <c r="H35" s="118" t="s">
+      <c r="H35" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="I35" s="119" t="s">
+      <c r="I35" s="102" t="s">
         <v>213</v>
       </c>
-      <c r="J35" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="120">
+      <c r="J35" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="103">
         <v>50</v>
       </c>
-      <c r="L35" s="121"/>
+      <c r="L35" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6689,29 +6695,29 @@
   <sheetData>
     <row r="1" spans="2:18" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="128" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="128" t="s">
         <v>216</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="133"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="95" t="s">
+      <c r="N2" s="128" t="s">
         <v>251</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
     </row>
     <row r="3" spans="2:18" ht="15">
       <c r="B3" s="2" t="s">
@@ -7125,13 +7131,13 @@
       </c>
     </row>
     <row r="12" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="94"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
       <c r="G12" s="6"/>
       <c r="H12" s="30" t="s">
         <v>248</v>
@@ -7224,13 +7230,13 @@
       <c r="F15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="105" t="s">
+      <c r="H15" s="146" t="s">
         <v>284</v>
       </c>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="94"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="133"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="2:18" ht="15">
@@ -7374,13 +7380,13 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="145" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="94"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="133"/>
       <c r="H21" s="30" t="s">
         <v>228</v>
       </c>
@@ -7491,13 +7497,13 @@
       <c r="F25" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="105" t="s">
+      <c r="H25" s="146" t="s">
         <v>285</v>
       </c>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="94"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="133"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1">
       <c r="B26" s="54"/>
@@ -7522,13 +7528,13 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="144" t="s">
         <v>282</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="94"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="133"/>
       <c r="H27" s="85" t="s">
         <v>273</v>
       </c>
@@ -7656,14 +7662,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="H25:L25"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="H15:L15"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="H25:L25"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7688,13 +7694,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
     </row>
     <row r="3" spans="2:6" ht="15">
       <c r="B3" s="2" t="s">

--- a/src/test/DB/table.xlsx
+++ b/src/test/DB/table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\git\Leggo_final\src\test\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahnus\git\Leggo_final\src\test\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABC0582-B026-4090-96DA-F96AF0500C2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="9750"/>
+    <workbookView xWindow="-8148" yWindow="2616" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주차장" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="299">
   <si>
     <t>주차장</t>
   </si>
@@ -439,9 +440,6 @@
     <t>장소 코드</t>
   </si>
   <si>
-    <t>visit_code</t>
-  </si>
-  <si>
     <t>favorite_code</t>
   </si>
   <si>
@@ -495,12 +493,6 @@
       </rPr>
       <t>HECK</t>
     </r>
-  </si>
-  <si>
-    <t>방문 횟수</t>
-  </si>
-  <si>
-    <t>visit_num</t>
   </si>
   <si>
     <t>위도</t>
@@ -1800,12 +1792,60 @@
     <t>varchar2</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>장소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이름</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_name</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>주차장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 코드</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>parking_code</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>recent_code</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="46">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="48">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2078,6 +2118,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2308,7 +2360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2542,23 +2594,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2582,6 +2618,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2593,6 +2645,11 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2808,51 +2865,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B1:Y983"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" customWidth="1"/>
-    <col min="23" max="23" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="25.109375" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" customWidth="1"/>
+    <col min="21" max="21" width="16.88671875" customWidth="1"/>
+    <col min="23" max="23" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="136"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="130"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="128" t="s">
+      <c r="H2" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="133"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" customHeight="1">
       <c r="B3" s="96" t="s">
@@ -2889,7 +2946,7 @@
     </row>
     <row r="4" spans="2:24" ht="15.75" customHeight="1">
       <c r="B4" s="111" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C4" s="109" t="s">
         <v>9</v>
@@ -2908,7 +2965,7 @@
         <v>110</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>10</v>
@@ -2939,7 +2996,7 @@
       </c>
       <c r="F5" s="100"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="77" t="s">
         <v>109</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -2948,11 +3005,11 @@
       <c r="J5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="19">
         <v>20</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M5" s="1"/>
       <c r="T5" s="1"/>
@@ -2976,20 +3033,20 @@
       </c>
       <c r="F6" s="100"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>24</v>
+      <c r="H6" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7">
+        <v>7</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="M6" s="6"/>
       <c r="T6" s="6"/>
@@ -3000,7 +3057,7 @@
     </row>
     <row r="7" spans="2:24" ht="15.75" customHeight="1">
       <c r="B7" s="114" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C7" s="94" t="s">
         <v>44</v>
@@ -3013,21 +3070,19 @@
       </c>
       <c r="F7" s="115"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>24</v>
-      </c>
+      <c r="H7" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="I7" s="147" t="s">
+        <v>294</v>
+      </c>
+      <c r="J7" s="147" t="s">
+        <v>295</v>
+      </c>
+      <c r="K7" s="149">
+        <v>60</v>
+      </c>
+      <c r="L7" s="8"/>
       <c r="M7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
@@ -3035,9 +3090,9 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
     </row>
-    <row r="8" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="8" spans="2:24" ht="15.75" customHeight="1">
       <c r="B8" s="114" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C8" s="94" t="s">
         <v>47</v>
@@ -3050,15 +3105,19 @@
       </c>
       <c r="F8" s="115"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43" t="s">
+      <c r="H8" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="39" t="s">
         <v>24</v>
       </c>
       <c r="M8" s="6"/>
@@ -3068,7 +3127,7 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
     </row>
-    <row r="9" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="9" spans="2:24" ht="15.75" customHeight="1">
       <c r="B9" s="113" t="s">
         <v>50</v>
       </c>
@@ -3083,11 +3142,21 @@
       </c>
       <c r="F9" s="100"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="H9" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>24</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -3116,13 +3185,21 @@
       </c>
       <c r="F10" s="100"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="128" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="130"/>
+      <c r="H10" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="148" t="s">
+        <v>295</v>
+      </c>
+      <c r="K10" s="42">
+        <v>100</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -3136,9 +3213,9 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="2:24" ht="15.75" customHeight="1">
+    <row r="11" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="116" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C11" s="94" t="s">
         <v>58</v>
@@ -3151,21 +3228,11 @@
       </c>
       <c r="F11" s="100"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -3179,7 +3246,7 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
     </row>
-    <row r="12" spans="2:24" ht="15.75" customHeight="1">
+    <row r="12" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="113" t="s">
         <v>35</v>
       </c>
@@ -3194,19 +3261,13 @@
       </c>
       <c r="F12" s="100"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="19">
-        <v>30</v>
-      </c>
-      <c r="L12" s="8"/>
+      <c r="H12" s="125" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="141"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -3235,20 +3296,20 @@
       </c>
       <c r="F13" s="120"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="19">
-        <v>20</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>81</v>
+      <c r="H13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -3271,16 +3332,16 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>125</v>
+        <v>110</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>298</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K14" s="19">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="6"/>
@@ -3297,28 +3358,28 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="130"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="141"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="39" t="s">
-        <v>24</v>
+      <c r="H15" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="19">
+        <v>20</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -3333,7 +3394,7 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
     </row>
-    <row r="16" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="16" spans="2:24" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
@@ -3350,20 +3411,20 @@
         <v>7</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="J16" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" s="43" t="s">
-        <v>24</v>
+      <c r="H16" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="I16" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="19">
+        <v>7</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -3378,7 +3439,7 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
     </row>
-    <row r="17" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="17" spans="2:24" ht="15.75" customHeight="1">
       <c r="B17" s="105" t="s">
         <v>8</v>
       </c>
@@ -3395,11 +3456,19 @@
         <v>81</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
+      <c r="H17" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="I17" s="147" t="s">
+        <v>294</v>
+      </c>
+      <c r="J17" s="147" t="s">
+        <v>295</v>
+      </c>
+      <c r="K17" s="149">
+        <v>60</v>
+      </c>
+      <c r="L17" s="8"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -3428,13 +3497,21 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="140" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="142"/>
+      <c r="H18" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>24</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -3448,7 +3525,7 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
     </row>
-    <row r="19" spans="2:24" ht="15.75" customHeight="1">
+    <row r="19" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="B19" s="5" t="s">
         <v>86</v>
       </c>
@@ -3463,20 +3540,20 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>7</v>
+      <c r="H19" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>24</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -3491,7 +3568,7 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="2:24" ht="15.75" customHeight="1">
+    <row r="20" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -3506,21 +3583,11 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="16">
-        <v>20</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>81</v>
-      </c>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -3549,19 +3616,13 @@
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="16">
-        <v>20</v>
-      </c>
-      <c r="L21" s="29"/>
+      <c r="H21" s="134" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="136"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -3575,7 +3636,7 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
     </row>
-    <row r="22" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="22" spans="2:24" ht="15.75" customHeight="1">
       <c r="B22" s="5" t="s">
         <v>97</v>
       </c>
@@ -3590,20 +3651,20 @@
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="34">
-        <v>50</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>123</v>
+      <c r="H22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>7</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -3633,13 +3694,21 @@
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="H23" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="16">
+        <v>20</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>81</v>
+      </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
@@ -3668,6 +3737,19 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="1"/>
+      <c r="H24" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="16">
+        <v>20</v>
+      </c>
+      <c r="L24" s="29"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -3683,6 +3765,21 @@
     </row>
     <row r="25" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="G25" s="1"/>
+      <c r="H25" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="34">
+        <v>50</v>
+      </c>
+      <c r="L25" s="35" t="s">
+        <v>122</v>
+      </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -3697,14 +3794,21 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="139"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="133"/>
       <c r="G26" s="6"/>
+      <c r="H26" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -3757,7 +3861,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="124" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G28" s="6"/>
       <c r="M28" s="6"/>
@@ -4162,13 +4266,13 @@
       <c r="T47" s="6"/>
     </row>
     <row r="48" spans="2:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B48" s="128" t="s">
+      <c r="B48" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="133"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="127"/>
       <c r="M48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
@@ -4356,7 +4460,7 @@
         <v>93</v>
       </c>
       <c r="D55" s="79" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E55" s="12">
         <v>50</v>
@@ -4490,11 +4594,11 @@
     </row>
     <row r="65" spans="2:25" ht="15.75" customHeight="1">
       <c r="G65" s="6"/>
-      <c r="T65" s="125"/>
-      <c r="U65" s="126"/>
-      <c r="V65" s="126"/>
-      <c r="W65" s="126"/>
-      <c r="X65" s="126"/>
+      <c r="T65" s="137"/>
+      <c r="U65" s="138"/>
+      <c r="V65" s="138"/>
+      <c r="W65" s="138"/>
+      <c r="X65" s="138"/>
     </row>
     <row r="66" spans="2:25" ht="15.75" customHeight="1">
       <c r="G66" s="6"/>
@@ -4639,11 +4743,6 @@
       <c r="E76" s="61"/>
       <c r="F76" s="60"/>
       <c r="G76" s="6"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
@@ -4664,11 +4763,6 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
@@ -4689,11 +4783,6 @@
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
@@ -4714,10 +4803,10 @@
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="22"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -4739,10 +4828,10 @@
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
+      <c r="H80" s="54"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
+      <c r="K80" s="7"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
@@ -4759,17 +4848,17 @@
     </row>
     <row r="81" spans="2:24" ht="15.75" customHeight="1">
       <c r="G81" s="6"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="65"/>
-      <c r="J81" s="65"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="65"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
       <c r="M81" s="6"/>
-      <c r="N81" s="127"/>
-      <c r="O81" s="126"/>
-      <c r="P81" s="126"/>
-      <c r="Q81" s="126"/>
-      <c r="R81" s="126"/>
+      <c r="N81" s="139"/>
+      <c r="O81" s="138"/>
+      <c r="P81" s="138"/>
+      <c r="Q81" s="138"/>
+      <c r="R81" s="138"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
@@ -4779,11 +4868,11 @@
     </row>
     <row r="82" spans="2:24" ht="15.75" customHeight="1">
       <c r="G82" s="6"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="65"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="65"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="62"/>
       <c r="O82" s="62"/>
@@ -4799,11 +4888,11 @@
     </row>
     <row r="83" spans="2:24" ht="15.75" customHeight="1">
       <c r="G83" s="6"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="65"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
@@ -4838,6 +4927,11 @@
       <c r="X84" s="6"/>
     </row>
     <row r="85" spans="2:24" ht="15.75" customHeight="1">
+      <c r="H85" s="64"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
       <c r="M85" s="6"/>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
@@ -4847,6 +4941,11 @@
       <c r="X85" s="6"/>
     </row>
     <row r="86" spans="2:24" ht="15.75" customHeight="1">
+      <c r="H86" s="64"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="65"/>
+      <c r="L86" s="65"/>
       <c r="M86" s="6"/>
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
@@ -4856,6 +4955,11 @@
       <c r="X86" s="6"/>
     </row>
     <row r="87" spans="2:24" ht="15.75" customHeight="1">
+      <c r="H87" s="64"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="65"/>
+      <c r="L87" s="65"/>
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
@@ -4888,11 +4992,11 @@
       <c r="F94" s="6"/>
     </row>
     <row r="95" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B95" s="131"/>
-      <c r="C95" s="126"/>
-      <c r="D95" s="126"/>
-      <c r="E95" s="126"/>
-      <c r="F95" s="126"/>
+      <c r="B95" s="142"/>
+      <c r="C95" s="138"/>
+      <c r="D95" s="138"/>
+      <c r="E95" s="138"/>
+      <c r="F95" s="138"/>
     </row>
     <row r="96" spans="2:24" ht="15.75" customHeight="1">
       <c r="B96" s="73"/>
@@ -4903,41 +5007,31 @@
     </row>
     <row r="97" spans="7:24" ht="15.75" customHeight="1">
       <c r="G97" s="6"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="6"/>
     </row>
     <row r="98" spans="7:24" ht="15.75" customHeight="1">
       <c r="G98" s="6"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
     </row>
     <row r="99" spans="7:24" ht="15.75" customHeight="1">
       <c r="G99" s="6"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
       <c r="M99" s="6"/>
       <c r="S99" s="6"/>
     </row>
     <row r="100" spans="7:24" ht="15.75" customHeight="1">
       <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
+      <c r="H100" s="54"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
+      <c r="K100" s="7"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
       <c r="S100" s="6"/>
     </row>
     <row r="101" spans="7:24" ht="15.75" customHeight="1">
+      <c r="H101" s="54"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
       <c r="M101" s="6"/>
       <c r="S101" s="6"/>
       <c r="T101" s="71"/>
@@ -4947,10 +5041,20 @@
       <c r="X101" s="58"/>
     </row>
     <row r="102" spans="7:24" ht="15.75" customHeight="1">
+      <c r="H102" s="54"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
       <c r="M102" s="6"/>
       <c r="S102" s="6"/>
     </row>
     <row r="103" spans="7:24" ht="15.75" customHeight="1">
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
       <c r="M103" s="1"/>
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
@@ -5880,16 +5984,16 @@
     <row r="983" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="T65:X65"/>
+    <mergeCell ref="N81:R81"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B95:F95"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B48:F48"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="T65:X65"/>
-    <mergeCell ref="N81:R81"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="H21:L21"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5898,45 +6002,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
-    <col min="8" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="3.5703125" customWidth="1"/>
-    <col min="14" max="18" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="8" max="11" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" customWidth="1"/>
+    <col min="14" max="18" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="13.5" thickBot="1"/>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1">
+    <row r="1" spans="2:12" ht="13.8" thickBot="1"/>
+    <row r="2" spans="2:12" ht="14.4" thickBot="1">
       <c r="B2" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="142"/>
-      <c r="H2" s="128" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="133"/>
-    </row>
-    <row r="3" spans="2:12" ht="15">
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="136"/>
+      <c r="H2" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
+    </row>
+    <row r="3" spans="2:12" ht="13.8">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -5968,7 +6072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="14.25">
+    <row r="4" spans="2:12" ht="14.4">
       <c r="B4" s="5" t="s">
         <v>107</v>
       </c>
@@ -5997,15 +6101,15 @@
         <v>20</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="14.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="14.4">
       <c r="B5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -6014,13 +6118,13 @@
         <v>20</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>25</v>
@@ -6029,15 +6133,15 @@
         <v>10</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="14.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="14.4">
       <c r="B6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -6046,13 +6150,13 @@
         <v>60</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>25</v>
@@ -6064,12 +6168,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="14.25">
+    <row r="7" spans="2:12" ht="14.4">
       <c r="B7" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -6078,13 +6182,13 @@
         <v>60</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>94</v>
@@ -6092,12 +6196,12 @@
       <c r="K7" s="7"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="2:12" ht="14.25">
+    <row r="8" spans="2:12" ht="14.4">
       <c r="B8" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -6106,13 +6210,13 @@
         <v>30</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>94</v>
@@ -6120,25 +6224,25 @@
       <c r="K8" s="7"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="2:12" ht="14.25">
+    <row r="9" spans="2:12" ht="14.4">
       <c r="B9" s="44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>94</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="53" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>25</v>
@@ -6152,13 +6256,13 @@
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1">
       <c r="B10" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E10" s="18">
         <v>1</v>
@@ -6167,10 +6271,10 @@
         <v>28</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>10</v>
@@ -6179,12 +6283,12 @@
         <v>10</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="14.4" thickBot="1">
       <c r="B11" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>58</v>
@@ -6197,12 +6301,12 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="2:12" ht="15">
+    <row r="12" spans="2:12" ht="13.8">
       <c r="B12" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
@@ -6211,19 +6315,19 @@
         <v>15</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" s="143" t="s">
-        <v>158</v>
-      </c>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="142"/>
-    </row>
-    <row r="13" spans="2:12" ht="15">
+        <v>155</v>
+      </c>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="136"/>
+    </row>
+    <row r="13" spans="2:12" ht="13.8">
       <c r="B13" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>32</v>
@@ -6251,12 +6355,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="14.25">
+    <row r="14" spans="2:12" ht="14.4">
       <c r="B14" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>10</v>
@@ -6266,10 +6370,10 @@
       </c>
       <c r="F14" s="8"/>
       <c r="H14" s="50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J14" s="37" t="s">
         <v>10</v>
@@ -6281,12 +6385,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="14.25">
+    <row r="15" spans="2:12" ht="14.4">
       <c r="B15" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
@@ -6295,10 +6399,10 @@
         <v>50</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>108</v>
@@ -6313,15 +6417,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="14.25">
+    <row r="16" spans="2:12" ht="14.4">
       <c r="B16" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E16" s="18">
         <v>1</v>
@@ -6330,7 +6434,7 @@
         <v>28</v>
       </c>
       <c r="H16" s="51" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>9</v>
@@ -6345,15 +6449,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="14.25">
+    <row r="17" spans="2:12" ht="14.4">
       <c r="B17" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E17" s="18">
         <v>1</v>
@@ -6362,10 +6466,10 @@
         <v>28</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>25</v>
@@ -6375,12 +6479,12 @@
       </c>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="2:12" ht="14.25">
+    <row r="18" spans="2:12" ht="14.4">
       <c r="B18" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>94</v>
@@ -6388,10 +6492,10 @@
       <c r="E18" s="47"/>
       <c r="F18" s="8"/>
       <c r="H18" s="50" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>10</v>
@@ -6401,12 +6505,12 @@
       </c>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="2:12" ht="17.25" thickBot="1">
+    <row r="19" spans="2:12" ht="18" thickBot="1">
       <c r="B19" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>94</v>
@@ -6414,10 +6518,10 @@
       <c r="E19" s="48"/>
       <c r="F19" s="13"/>
       <c r="H19" s="50" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>25</v>
@@ -6427,12 +6531,12 @@
       </c>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="2:12" ht="14.25">
+    <row r="20" spans="2:12" ht="14.4">
       <c r="H20" s="50" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>94</v>
@@ -6442,10 +6546,10 @@
     </row>
     <row r="21" spans="2:12" ht="15" thickBot="1">
       <c r="H21" s="55" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>94</v>
@@ -6453,17 +6557,17 @@
       <c r="K21" s="12"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="2:12" ht="13.5" thickBot="1"/>
-    <row r="23" spans="2:12" ht="15">
-      <c r="H23" s="137" t="s">
-        <v>159</v>
-      </c>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="136"/>
-    </row>
-    <row r="24" spans="2:12" ht="15">
+    <row r="22" spans="2:12" ht="13.8" thickBot="1"/>
+    <row r="23" spans="2:12" ht="13.8">
+      <c r="H23" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="129"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="130"/>
+    </row>
+    <row r="24" spans="2:12" ht="13.8">
       <c r="H24" s="96" t="s">
         <v>3</v>
       </c>
@@ -6480,12 +6584,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="14.25">
+    <row r="25" spans="2:12" ht="14.4">
       <c r="H25" s="98" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I25" s="94" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J25" s="94" t="s">
         <v>25</v>
@@ -6494,15 +6598,15 @@
         <v>15</v>
       </c>
       <c r="L25" s="99" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="14.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="14.4">
       <c r="H26" s="98" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I26" s="94" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J26" s="94" t="s">
         <v>25</v>
@@ -6511,10 +6615,10 @@
         <v>15</v>
       </c>
       <c r="L26" s="99" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="14.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="14.4">
       <c r="H27" s="98" t="s">
         <v>109</v>
       </c>
@@ -6526,15 +6630,15 @@
       </c>
       <c r="K27" s="95"/>
       <c r="L27" s="100" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="14.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="14.4">
       <c r="H28" s="98" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I28" s="94" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J28" s="94" t="s">
         <v>25</v>
@@ -6546,12 +6650,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="14.25">
+    <row r="29" spans="2:12" ht="14.4">
       <c r="H29" s="98" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I29" s="94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J29" s="94" t="s">
         <v>25</v>
@@ -6560,15 +6664,15 @@
         <v>10</v>
       </c>
       <c r="L29" s="100" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="14.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="14.4">
       <c r="H30" s="98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I30" s="94" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J30" s="94" t="s">
         <v>94</v>
@@ -6576,12 +6680,12 @@
       <c r="K30" s="95"/>
       <c r="L30" s="100"/>
     </row>
-    <row r="31" spans="2:12" ht="14.25">
+    <row r="31" spans="2:12" ht="14.4">
       <c r="H31" s="98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I31" s="94" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J31" s="94" t="s">
         <v>25</v>
@@ -6590,15 +6694,15 @@
         <v>10</v>
       </c>
       <c r="L31" s="100" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="14.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="14.4">
       <c r="H32" s="98" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I32" s="94" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J32" s="94" t="s">
         <v>25</v>
@@ -6607,32 +6711,32 @@
         <v>10</v>
       </c>
       <c r="L32" s="100" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" ht="14.4">
+      <c r="H33" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="I33" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="J33" s="94" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="33" spans="8:12" ht="14.25">
-      <c r="H33" s="98" t="s">
+      <c r="K33" s="95">
+        <v>10</v>
+      </c>
+      <c r="L33" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="I33" s="94" t="s">
+    </row>
+    <row r="34" spans="8:12" ht="14.4">
+      <c r="H34" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="J33" s="94" t="s">
+      <c r="I34" s="94" t="s">
         <v>208</v>
-      </c>
-      <c r="K33" s="95">
-        <v>10</v>
-      </c>
-      <c r="L33" s="100" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="8:12" ht="14.25">
-      <c r="H34" s="98" t="s">
-        <v>210</v>
-      </c>
-      <c r="I34" s="94" t="s">
-        <v>211</v>
       </c>
       <c r="J34" s="94" t="s">
         <v>10</v>
@@ -6644,10 +6748,10 @@
     </row>
     <row r="35" spans="8:12" ht="15" thickBot="1">
       <c r="H35" s="101" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I35" s="102" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J35" s="102" t="s">
         <v>10</v>
@@ -6671,55 +6775,55 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" customWidth="1"/>
-    <col min="8" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" customWidth="1"/>
+    <col min="8" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.88671875" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="13.5" thickBot="1"/>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B2" s="128" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
+    <row r="1" spans="2:18" ht="13.8" thickBot="1"/>
+    <row r="2" spans="2:18" ht="14.4" thickBot="1">
+      <c r="B2" s="125" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="128" t="s">
-        <v>216</v>
-      </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="133"/>
+      <c r="H2" s="125" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="128" t="s">
-        <v>251</v>
-      </c>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-    </row>
-    <row r="3" spans="2:18" ht="15">
+      <c r="N2" s="125" t="s">
+        <v>248</v>
+      </c>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="127"/>
+    </row>
+    <row r="3" spans="2:18" ht="13.8">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -6768,12 +6872,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="15">
+    <row r="4" spans="2:18" ht="13.8">
       <c r="B4" s="30" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>25</v>
@@ -6786,10 +6890,10 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="30" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>25</v>
@@ -6802,10 +6906,10 @@
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="30" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>25</v>
@@ -6817,12 +6921,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="15">
+    <row r="5" spans="2:18" ht="13.8">
       <c r="B5" s="30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -6835,10 +6939,10 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>10</v>
@@ -6847,14 +6951,14 @@
         <v>60</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>10</v>
@@ -6866,12 +6970,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="14.25">
+    <row r="6" spans="2:18" ht="13.8">
       <c r="B6" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -6884,10 +6988,10 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>10</v>
@@ -6900,10 +7004,10 @@
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>10</v>
@@ -6915,12 +7019,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="14.25">
+    <row r="7" spans="2:18" ht="13.8">
       <c r="B7" s="30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>94</v>
@@ -6929,10 +7033,10 @@
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
       <c r="H7" s="30" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>10</v>
@@ -6941,14 +7045,14 @@
         <v>15</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>94</v>
@@ -6956,12 +7060,12 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="2:18" ht="14.25">
+    <row r="8" spans="2:18" ht="13.8">
       <c r="B8" s="30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -6974,13 +7078,13 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="8"/>
@@ -7001,25 +7105,25 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="14.25">
+    <row r="9" spans="2:18" ht="13.8">
       <c r="B9" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>108</v>
@@ -7035,10 +7139,10 @@
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="30" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>94</v>
@@ -7046,12 +7150,12 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="2:18" ht="15" thickBot="1">
+    <row r="10" spans="2:18" ht="14.4" thickBot="1">
       <c r="B10" s="70" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>10</v>
@@ -7062,26 +7166,26 @@
       <c r="F10" s="13"/>
       <c r="G10" s="6"/>
       <c r="H10" s="30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7">
         <v>1</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>25</v>
@@ -7090,10 +7194,10 @@
         <v>2</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="15" thickBot="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="14.4" thickBot="1">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -7101,10 +7205,10 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>10</v>
@@ -7115,7 +7219,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="6"/>
       <c r="N11" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>108</v>
@@ -7130,20 +7234,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B12" s="128" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="133"/>
+    <row r="12" spans="2:18" ht="14.4" thickBot="1">
+      <c r="B12" s="125" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
       <c r="G12" s="6"/>
       <c r="H12" s="30" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>94</v>
@@ -7152,10 +7256,10 @@
       <c r="L12" s="8"/>
       <c r="M12" s="6"/>
       <c r="N12" s="70" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O12" s="75" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P12" s="75" t="s">
         <v>10</v>
@@ -7165,7 +7269,7 @@
       </c>
       <c r="R12" s="69"/>
     </row>
-    <row r="13" spans="2:18" ht="15.75" thickBot="1">
+    <row r="13" spans="2:18" ht="14.4" thickBot="1">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
@@ -7183,10 +7287,10 @@
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="70" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>10</v>
@@ -7197,12 +7301,12 @@
       <c r="L13" s="13"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="2:18" ht="15" thickBot="1">
+    <row r="14" spans="2:18" ht="14.4" thickBot="1">
       <c r="B14" s="30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>25</v>
@@ -7214,12 +7318,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="15.75" thickBot="1">
+    <row r="15" spans="2:18" ht="15" thickBot="1">
       <c r="B15" s="66" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
@@ -7231,20 +7335,20 @@
         <v>24</v>
       </c>
       <c r="H15" s="146" t="s">
-        <v>284</v>
-      </c>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="133"/>
+        <v>281</v>
+      </c>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="127"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="2:18" ht="15">
+    <row r="16" spans="2:18" ht="13.8">
       <c r="B16" s="66" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>10</v>
@@ -7272,12 +7376,12 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="2:13" ht="14.25">
+    <row r="17" spans="2:13" ht="14.4">
       <c r="B17" s="30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>10</v>
@@ -7289,10 +7393,10 @@
         <v>24</v>
       </c>
       <c r="H17" s="80" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I17" s="81" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>25</v>
@@ -7301,16 +7405,16 @@
         <v>3</v>
       </c>
       <c r="L17" s="82" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="2:13" ht="14.25">
+    <row r="18" spans="2:13" ht="13.8">
       <c r="B18" s="66" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>10</v>
@@ -7319,36 +7423,36 @@
         <v>30</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H18" s="80" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I18" s="81" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J18" s="81" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K18" s="19">
         <v>10</v>
       </c>
       <c r="L18" s="82" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:13" ht="15" thickBot="1">
+    <row r="19" spans="2:13" ht="14.4" thickBot="1">
       <c r="B19" s="67"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
       <c r="F19" s="69"/>
       <c r="H19" s="30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>10</v>
@@ -7361,12 +7465,12 @@
       </c>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:13" ht="15" thickBot="1">
+    <row r="20" spans="2:13" ht="14.4" thickBot="1">
       <c r="H20" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>10</v>
@@ -7379,19 +7483,19 @@
       </c>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1">
+    <row r="21" spans="2:13" ht="15" thickBot="1">
       <c r="B21" s="145" t="s">
-        <v>283</v>
-      </c>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="133"/>
+        <v>280</v>
+      </c>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="127"/>
       <c r="H21" s="30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>94</v>
@@ -7400,7 +7504,7 @@
       <c r="L21" s="8"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="2:13" ht="15">
+    <row r="22" spans="2:13" ht="13.8">
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
@@ -7417,7 +7521,7 @@
         <v>7</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>108</v>
@@ -7435,10 +7539,10 @@
     </row>
     <row r="23" spans="2:13" ht="15" thickBot="1">
       <c r="B23" s="80" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>25</v>
@@ -7447,13 +7551,13 @@
         <v>3</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H23" s="70" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>10</v>
@@ -7464,12 +7568,12 @@
       <c r="L23" s="13"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="2:13" ht="15" thickBot="1">
+    <row r="24" spans="2:13" ht="14.4" thickBot="1">
       <c r="B24" s="77" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>10</v>
@@ -7481,12 +7585,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15.75" thickBot="1">
+    <row r="25" spans="2:13" ht="15.6" thickBot="1">
       <c r="B25" s="78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>10</v>
@@ -7498,14 +7602,14 @@
         <v>24</v>
       </c>
       <c r="H25" s="146" t="s">
-        <v>285</v>
-      </c>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="133"/>
-    </row>
-    <row r="26" spans="2:13" ht="15.75" thickBot="1">
+        <v>282</v>
+      </c>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="127"/>
+    </row>
+    <row r="26" spans="2:13" ht="14.4" thickBot="1">
       <c r="B26" s="54"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -7527,31 +7631,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="15.75" thickBot="1">
+    <row r="27" spans="2:13" ht="16.2" thickBot="1">
       <c r="B27" s="144" t="s">
-        <v>282</v>
-      </c>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="133"/>
+        <v>279</v>
+      </c>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
       <c r="H27" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="I27" s="83" t="s">
         <v>273</v>
       </c>
-      <c r="I27" s="83" t="s">
-        <v>276</v>
-      </c>
       <c r="J27" s="83" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K27" s="74">
         <v>10</v>
       </c>
       <c r="L27" s="84" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="13.8">
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
@@ -7568,10 +7672,10 @@
         <v>7</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>25</v>
@@ -7583,12 +7687,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="14.25">
+    <row r="29" spans="2:13" ht="13.8">
       <c r="B29" s="80" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>25</v>
@@ -7597,13 +7701,13 @@
         <v>3</v>
       </c>
       <c r="F29" s="82" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>10</v>
@@ -7612,15 +7716,15 @@
         <v>500</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="15" thickBot="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="14.4" thickBot="1">
       <c r="B30" s="90" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D30" s="88" t="s">
         <v>10</v>
@@ -7632,7 +7736,7 @@
         <v>24</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>108</v>
@@ -7644,18 +7748,18 @@
         <v>20</v>
       </c>
       <c r="L30" s="82" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="15" thickBot="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="14.4" thickBot="1">
       <c r="H31" s="70" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="13"/>
@@ -7677,32 +7781,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="13.5" thickBot="1"/>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B2" s="128" t="s">
+    <row r="1" spans="2:6" ht="13.8" thickBot="1"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1">
+      <c r="B2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
-    </row>
-    <row r="3" spans="2:6" ht="15">
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+    </row>
+    <row r="3" spans="2:6" ht="13.8">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -7719,7 +7823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="14.25">
+    <row r="4" spans="2:6" ht="14.4">
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
@@ -7736,7 +7840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="14.25">
+    <row r="5" spans="2:6" ht="14.4">
       <c r="B5" s="5" t="s">
         <v>22</v>
       </c>

--- a/src/test/DB/table.xlsx
+++ b/src/test/DB/table.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\git\Leggo_final\src\test\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahnus\git\Leggo_final\src\test\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABC0582-B026-4090-96DA-F96AF0500C2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21630" windowHeight="14895"/>
+    <workbookView xWindow="-8148" yWindow="2616" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="시트1" sheetId="1" r:id="rId1"/>
+    <sheet name="주차장" sheetId="1" r:id="rId1"/>
+    <sheet name="회원" sheetId="2" r:id="rId2"/>
+    <sheet name="게시판" sheetId="3" r:id="rId3"/>
+    <sheet name="기타" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="299">
   <si>
     <t>주차장</t>
   </si>
@@ -178,18 +182,9 @@
     <t>not null</t>
   </si>
   <si>
-    <t>도시번호</t>
-  </si>
-  <si>
-    <t>city_code</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
-    <t>PK FK</t>
-  </si>
-  <si>
     <t>발송방법</t>
   </si>
   <si>
@@ -199,12 +194,6 @@
     <t>check</t>
   </si>
   <si>
-    <t>건물번호</t>
-  </si>
-  <si>
-    <t>build_code</t>
-  </si>
-  <si>
     <t>기본 주차 요금</t>
   </si>
   <si>
@@ -250,9 +239,6 @@
     <t>add_time_rate</t>
   </si>
   <si>
-    <t>주차장 종류(실내, 야외)</t>
-  </si>
-  <si>
     <t>parking_type</t>
   </si>
   <si>
@@ -262,9 +248,6 @@
     <t>Saturday_pay_yn</t>
   </si>
   <si>
-    <t>주차장 종류명</t>
-  </si>
-  <si>
     <t>parking_type_nm</t>
   </si>
   <si>
@@ -298,9 +281,6 @@
     <t>holiday_pay_nm</t>
   </si>
   <si>
-    <t>주차장 전화번호</t>
-  </si>
-  <si>
     <t>tel</t>
   </si>
   <si>
@@ -458,9 +438,6 @@
   </si>
   <si>
     <t>장소 코드</t>
-  </si>
-  <si>
-    <t>visit_code</t>
   </si>
   <si>
     <t>favorite_code</t>
@@ -516,12 +493,6 @@
       </rPr>
       <t>HECK</t>
     </r>
-  </si>
-  <si>
-    <t>방문 횟수</t>
-  </si>
-  <si>
-    <t>visit_num</t>
   </si>
   <si>
     <t>위도</t>
@@ -692,9 +663,6 @@
     <t>포인트</t>
   </si>
   <si>
-    <t>비고</t>
-  </si>
-  <si>
     <t>예약 번호</t>
   </si>
   <si>
@@ -707,9 +675,6 @@
     <t>pm_num</t>
   </si>
   <si>
-    <t>sequence로 증가</t>
-  </si>
-  <si>
     <r>
       <t>F</t>
     </r>
@@ -727,19 +692,6 @@
   </si>
   <si>
     <t>예약번호</t>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>K</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1283,25 +1235,13 @@
     </r>
   </si>
   <si>
-    <t>자유게시판</t>
-  </si>
-  <si>
     <t>리뷰</t>
   </si>
   <si>
-    <t>댓글</t>
-  </si>
-  <si>
-    <t>자유게시판 번호</t>
-  </si>
-  <si>
     <t>리뷰 번호</t>
   </si>
   <si>
     <t>review_num</t>
-  </si>
-  <si>
-    <t>자유 게시판 번호</t>
   </si>
   <si>
     <t>댓글 번호</t>
@@ -1405,12 +1345,6 @@
     </r>
   </si>
   <si>
-    <t>이미지</t>
-  </si>
-  <si>
-    <t>게시판 번호</t>
-  </si>
-  <si>
     <t>brd_type_num</t>
   </si>
   <si>
@@ -1439,11 +1373,11 @@
       </rPr>
       <t xml:space="preserve"> URL</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>content_url</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1459,27 +1393,15 @@
       </rPr>
       <t xml:space="preserve"> 번호</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
-    <t>free_brd_type_num</t>
-    <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
-    <t>free_brd_num</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>varchar2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>FK(회원)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1495,18 +1417,435 @@
       </rPr>
       <t>자유게시판)</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>brd_type_num</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 번호</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고유번호</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자유게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고유번호</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>brd_num</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>brd_type</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>varchar2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FK(type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>type 테이블</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4285F4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">img </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF4285F4"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">freeboard </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>cmt</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FK(type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(SQ)</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(SQ)</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차장코드</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주차장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종류</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주차장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종류명</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>장소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이름</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_name</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>주차장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 코드</t>
+    </r>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>parking_code</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>recent_code</t>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="42">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="48">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1545,12 +1884,6 @@
       <name val="Dotum"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1676,12 +2009,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF4285F4"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="4"/>
       <name val="돋움"/>
       <family val="3"/>
@@ -1753,16 +2080,78 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4285F4"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4285F4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1887,11 +2276,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1906,11 +2375,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1918,11 +2382,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1930,176 +2394,262 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2315,60 +2865,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B1:Y983"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" customWidth="1"/>
-    <col min="23" max="23" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="25.109375" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" customWidth="1"/>
+    <col min="21" max="21" width="16.88671875" customWidth="1"/>
+    <col min="23" max="23" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15.75" customHeight="1"/>
-    <row r="2" spans="2:24" ht="15.75" customHeight="1"/>
-    <row r="3" spans="2:24" ht="15.75" customHeight="1"/>
+    <row r="1" spans="2:24" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="125" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
+    </row>
+    <row r="3" spans="2:24" ht="15.75" customHeight="1">
+      <c r="B3" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="4" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="94"/>
+      <c r="B4" s="111" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="110">
+        <v>7</v>
+      </c>
+      <c r="F4" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7">
+        <v>30</v>
+      </c>
+      <c r="L4" s="8"/>
       <c r="M4" s="1"/>
-      <c r="O4" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="94"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -2376,53 +2982,36 @@
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>7</v>
+      <c r="B5" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="95">
+        <v>100</v>
+      </c>
+      <c r="F5" s="100"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="19">
+        <v>20</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="M5" s="1"/>
-      <c r="O5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -2430,51 +3019,36 @@
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="B6" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="95">
+        <v>200</v>
+      </c>
+      <c r="F6" s="100"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>297</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7">
         <v>7</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="M6" s="6"/>
-      <c r="O6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R6" s="7">
-        <v>3</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -2482,49 +3056,34 @@
       <c r="X6" s="6"/>
     </row>
     <row r="7" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7">
-        <v>100</v>
-      </c>
-      <c r="F7" s="8"/>
+      <c r="B7" s="114" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="95">
+        <v>3</v>
+      </c>
+      <c r="F7" s="115"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="7">
-        <v>30</v>
+      <c r="H7" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="I7" s="147" t="s">
+        <v>294</v>
+      </c>
+      <c r="J7" s="147" t="s">
+        <v>295</v>
+      </c>
+      <c r="K7" s="149">
+        <v>60</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="7">
-        <v>200</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -2532,51 +3091,36 @@
       <c r="X7" s="6"/>
     </row>
     <row r="8" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="114" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="95">
+        <v>50</v>
+      </c>
+      <c r="F8" s="115"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="12">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="7">
-        <v>7</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>28</v>
+      <c r="K8" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="M8" s="6"/>
-      <c r="O8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="R8" s="15">
-        <v>3</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
@@ -2584,33 +3128,35 @@
       <c r="X8" s="6"/>
     </row>
     <row r="9" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="12">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8"/>
+      <c r="B9" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="95">
+        <v>3</v>
+      </c>
+      <c r="F9" s="100"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="7">
-        <v>15</v>
-      </c>
-      <c r="L9" s="8"/>
+      <c r="H9" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>24</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -2624,34 +3170,36 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
     </row>
-    <row r="10" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7">
-        <v>200</v>
-      </c>
-      <c r="F10" s="8"/>
+    <row r="10" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B10" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="95">
+        <v>100</v>
+      </c>
+      <c r="F10" s="100"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="7">
-        <v>15</v>
-      </c>
-      <c r="L10" s="8"/>
+      <c r="H10" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="148" t="s">
+        <v>295</v>
+      </c>
+      <c r="K10" s="42">
+        <v>100</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -2665,34 +3213,26 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
     </row>
-    <row r="11" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="8"/>
+    <row r="11" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B11" s="116" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="95">
+        <v>15</v>
+      </c>
+      <c r="F11" s="100"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="7">
-        <v>15</v>
-      </c>
-      <c r="L11" s="8"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -2706,34 +3246,28 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
     </row>
-    <row r="12" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="8"/>
+    <row r="12" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="100"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="7">
-        <v>15</v>
-      </c>
-      <c r="L12" s="8"/>
+      <c r="H12" s="125" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="141"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -2747,34 +3281,36 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
     </row>
-    <row r="13" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7">
+    <row r="13" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B13" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="120"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="7">
-        <v>3</v>
-      </c>
-      <c r="L13" s="8"/>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -2788,31 +3324,23 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
     </row>
-    <row r="14" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7">
-        <v>50</v>
-      </c>
-      <c r="F14" s="8"/>
+    <row r="14" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>56</v>
+      <c r="H14" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>298</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="19">
         <v>30</v>
       </c>
       <c r="L14" s="8"/>
@@ -2829,34 +3357,30 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
     </row>
-    <row r="15" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7">
-        <v>3</v>
-      </c>
-      <c r="F15" s="8"/>
+    <row r="15" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B15" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="141"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="5" t="s">
-        <v>59</v>
+      <c r="H15" s="77" t="s">
+        <v>109</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="7">
-        <v>3</v>
-      </c>
-      <c r="L15" s="8"/>
+      <c r="K15" s="19">
+        <v>20</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -2871,33 +3395,37 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="7">
-        <v>100</v>
-      </c>
-      <c r="F16" s="8"/>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>64</v>
+      <c r="H16" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="I16" s="81" t="s">
+        <v>297</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="7">
-        <v>30</v>
-      </c>
-      <c r="L16" s="8"/>
+      <c r="K16" s="19">
+        <v>7</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -2912,31 +3440,33 @@
       <c r="X16" s="6"/>
     </row>
     <row r="17" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B17" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="86" t="s">
-        <v>292</v>
-      </c>
-      <c r="E17" s="15">
-        <v>15</v>
-      </c>
-      <c r="F17" s="16"/>
+      <c r="B17" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="107">
+        <v>7</v>
+      </c>
+      <c r="F17" s="108" t="s">
+        <v>81</v>
+      </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="7">
-        <v>15</v>
+      <c r="H17" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="I17" s="147" t="s">
+        <v>294</v>
+      </c>
+      <c r="J17" s="147" t="s">
+        <v>295</v>
+      </c>
+      <c r="K17" s="149">
+        <v>60</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="6"/>
@@ -2953,25 +3483,35 @@
       <c r="X17" s="6"/>
     </row>
     <row r="18" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="19">
+        <v>4</v>
+      </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="7">
-        <v>15</v>
-      </c>
-      <c r="L18" s="8"/>
+      <c r="H18" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>24</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -2985,26 +3525,36 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
     </row>
-    <row r="19" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
+    <row r="19" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="19">
+        <v>4</v>
+      </c>
+      <c r="F19" s="8"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="7">
-        <v>15</v>
-      </c>
-      <c r="L19" s="8"/>
+      <c r="H19" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -3018,26 +3568,26 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
     </row>
-    <row r="20" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
+    <row r="20" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="19">
+        <v>4</v>
+      </c>
+      <c r="F20" s="8"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="7">
-        <v>15</v>
-      </c>
-      <c r="L20" s="8"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -3052,25 +3602,27 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="B21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="19">
+        <v>4</v>
+      </c>
+      <c r="F21" s="8"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="7">
-        <v>15</v>
-      </c>
-      <c r="L21" s="8"/>
+      <c r="H21" s="134" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="136"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -3085,25 +3637,35 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
+      <c r="B22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="19">
+        <v>4</v>
+      </c>
+      <c r="F22" s="8"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="15">
-        <v>15</v>
-      </c>
-      <c r="L22" s="16"/>
+      <c r="H22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>7</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -3118,17 +3680,35 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
+      <c r="B23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="19">
+        <v>4</v>
+      </c>
+      <c r="F23" s="8"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="6"/>
+      <c r="H23" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="16">
+        <v>20</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>81</v>
+      </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
@@ -3142,18 +3722,34 @@
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
     </row>
-    <row r="24" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+    <row r="24" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B24" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="23">
+        <v>50</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="16">
+        <v>20</v>
+      </c>
+      <c r="L24" s="29"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -3167,18 +3763,23 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
     </row>
-    <row r="25" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+    <row r="25" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="G25" s="1"/>
+      <c r="H25" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="34">
+        <v>50</v>
+      </c>
+      <c r="L25" s="35" t="s">
+        <v>122</v>
+      </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -3193,21 +3794,21 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B26" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="94"/>
+      <c r="B26" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -3222,44 +3823,24 @@
       <c r="X26" s="1"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="G27" s="6"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -3267,40 +3848,24 @@
       <c r="X27" s="1"/>
     </row>
     <row r="28" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B28" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="7">
-        <v>3</v>
-      </c>
-      <c r="F28" s="8"/>
+      <c r="B28" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="122">
+        <v>7</v>
+      </c>
+      <c r="F28" s="124" t="s">
+        <v>287</v>
+      </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="7">
-        <v>3</v>
-      </c>
-      <c r="L28" s="8"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
@@ -3308,40 +3873,22 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="7">
-        <v>60</v>
-      </c>
-      <c r="F29" s="8"/>
+      <c r="B29" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="95">
+        <v>1</v>
+      </c>
+      <c r="F29" s="100"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="22">
-        <v>150</v>
-      </c>
-      <c r="L29" s="8"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
@@ -3349,44 +3896,22 @@
       <c r="X29" s="6"/>
     </row>
     <row r="30" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="7">
-        <v>7</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="B30" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="95">
+        <v>30</v>
+      </c>
+      <c r="F30" s="100"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" s="7">
-        <v>7</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
@@ -3394,40 +3919,22 @@
       <c r="X30" s="6"/>
     </row>
     <row r="31" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="22">
-        <v>4</v>
-      </c>
-      <c r="F31" s="8"/>
+      <c r="B31" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="95">
+        <v>3</v>
+      </c>
+      <c r="F31" s="100"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="7">
-        <v>4</v>
-      </c>
-      <c r="L31" s="8"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
@@ -3435,40 +3942,22 @@
       <c r="X31" s="6"/>
     </row>
     <row r="32" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B32" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="22">
-        <v>4</v>
-      </c>
-      <c r="F32" s="8"/>
+      <c r="B32" s="113" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="95">
+        <v>60</v>
+      </c>
+      <c r="F32" s="100"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" s="7">
-        <v>4</v>
-      </c>
-      <c r="L32" s="8"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
@@ -3476,38 +3965,22 @@
       <c r="X32" s="6"/>
     </row>
     <row r="33" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B33" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="22">
-        <v>4</v>
-      </c>
-      <c r="F33" s="8"/>
+      <c r="B33" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="95">
+        <v>3</v>
+      </c>
+      <c r="F33" s="100"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="K33" s="15"/>
-      <c r="L33" s="16"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
@@ -3515,28 +3988,22 @@
       <c r="X33" s="6"/>
     </row>
     <row r="34" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B34" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="22">
-        <v>4</v>
-      </c>
-      <c r="F34" s="8"/>
+      <c r="B34" s="113" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="95">
+        <v>30</v>
+      </c>
+      <c r="F34" s="100"/>
       <c r="G34" s="6"/>
-      <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
@@ -3544,28 +4011,22 @@
       <c r="X34" s="6"/>
     </row>
     <row r="35" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B35" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="22">
-        <v>4</v>
-      </c>
-      <c r="F35" s="8"/>
+      <c r="B35" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="95">
+        <v>3</v>
+      </c>
+      <c r="F35" s="100"/>
       <c r="G35" s="6"/>
-      <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
@@ -3573,32 +4034,22 @@
       <c r="X35" s="6"/>
     </row>
     <row r="36" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B36" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="22">
-        <v>4</v>
-      </c>
-      <c r="F36" s="8"/>
+      <c r="B36" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="95">
+        <v>30</v>
+      </c>
+      <c r="F36" s="100"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
@@ -3606,32 +4057,22 @@
       <c r="X36" s="6"/>
     </row>
     <row r="37" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B37" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="26">
-        <v>50</v>
-      </c>
-      <c r="F37" s="16"/>
+      <c r="B37" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="95">
+        <v>15</v>
+      </c>
+      <c r="F37" s="100"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
@@ -3639,24 +4080,22 @@
       <c r="X37" s="6"/>
     </row>
     <row r="38" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="B38" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="95">
+        <v>15</v>
+      </c>
+      <c r="F38" s="100"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
@@ -3664,24 +4103,22 @@
       <c r="X38" s="6"/>
     </row>
     <row r="39" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="B39" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="95">
+        <v>15</v>
+      </c>
+      <c r="F39" s="100"/>
+      <c r="G39" s="1"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
@@ -3689,24 +4126,22 @@
       <c r="X39" s="6"/>
     </row>
     <row r="40" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="B40" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="95">
+        <v>15</v>
+      </c>
+      <c r="F40" s="100"/>
+      <c r="G40" s="1"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
@@ -3714,418 +4149,130 @@
       <c r="X40" s="6"/>
     </row>
     <row r="41" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B41" s="96" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="99" t="s">
-        <v>112</v>
-      </c>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="98"/>
+      <c r="B41" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="95">
+        <v>15</v>
+      </c>
+      <c r="F41" s="100"/>
+      <c r="G41" s="6"/>
       <c r="M41" s="1"/>
-      <c r="O41" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="93"/>
-      <c r="S41" s="94"/>
       <c r="T41" s="1"/>
-      <c r="U41" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="V41" s="93"/>
-      <c r="W41" s="93"/>
-      <c r="X41" s="93"/>
-      <c r="Y41" s="94"/>
     </row>
     <row r="42" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="L42" s="30" t="s">
-        <v>7</v>
-      </c>
+      <c r="B42" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="95">
+        <v>15</v>
+      </c>
+      <c r="F42" s="100"/>
+      <c r="G42" s="6"/>
       <c r="M42" s="1"/>
-      <c r="O42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="T42" s="1"/>
-      <c r="U42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y42" s="4" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="43" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B43" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="21">
-        <v>20</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B43" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="95">
+        <v>15</v>
+      </c>
+      <c r="F43" s="100"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="19">
-        <v>20</v>
-      </c>
-      <c r="L43" s="32" t="s">
-        <v>89</v>
-      </c>
       <c r="M43" s="6"/>
-      <c r="O43" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R43" s="7">
-        <v>30</v>
-      </c>
-      <c r="S43" s="8"/>
       <c r="T43" s="6"/>
-      <c r="U43" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="V43" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="W43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="X43" s="7">
-        <v>30</v>
-      </c>
-      <c r="Y43" s="8"/>
     </row>
     <row r="44" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B44" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="34">
-        <v>20</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>123</v>
-      </c>
+      <c r="B44" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="95">
+        <v>15</v>
+      </c>
+      <c r="F44" s="100"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J44" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="19">
-        <v>20</v>
-      </c>
-      <c r="L44" s="32"/>
       <c r="M44" s="6"/>
-      <c r="O44" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R44" s="7">
-        <v>20</v>
-      </c>
-      <c r="S44" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="T44" s="6"/>
-      <c r="U44" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="V44" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="W44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="X44" s="7">
-        <v>20</v>
-      </c>
-      <c r="Y44" s="8" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="45" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B45" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="34">
-        <v>60</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>123</v>
-      </c>
+      <c r="B45" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="95">
+        <v>15</v>
+      </c>
+      <c r="F45" s="100"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="I45" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="J45" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="37">
-        <v>50</v>
-      </c>
-      <c r="L45" s="38" t="s">
-        <v>131</v>
-      </c>
       <c r="M45" s="6"/>
-      <c r="O45" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R45" s="7">
-        <v>6</v>
-      </c>
-      <c r="S45" s="8"/>
       <c r="T45" s="6"/>
-      <c r="U45" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="V45" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="W45" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="X45" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y45" s="42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B46" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="34">
-        <v>60</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>123</v>
-      </c>
+    </row>
+    <row r="46" spans="2:25" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B46" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="119">
+        <v>15</v>
+      </c>
+      <c r="F46" s="120"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
       <c r="M46" s="6"/>
-      <c r="O46" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="P46" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q46" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="R46" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="S46" s="42" t="s">
-        <v>24</v>
-      </c>
       <c r="T46" s="6"/>
-      <c r="U46" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="V46" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="W46" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="X46" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y46" s="42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B47" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="34">
-        <v>30</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+    </row>
+    <row r="47" spans="2:25" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="6"/>
       <c r="M47" s="6"/>
-      <c r="O47" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="P47" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q47" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="R47" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="S47" s="46" t="s">
-        <v>24</v>
-      </c>
       <c r="T47" s="6"/>
-      <c r="U47" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="V47" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="W47" s="44"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B48" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+    </row>
+    <row r="48" spans="2:25" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B48" s="125" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="126"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="127"/>
       <c r="M48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
@@ -4140,26 +4287,21 @@
       <c r="Y48" s="6"/>
     </row>
     <row r="49" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B49" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49" s="21">
-        <v>1</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+      <c r="B49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
@@ -4174,24 +4316,21 @@
       <c r="X49" s="6"/>
     </row>
     <row r="50" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B50" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="21">
-        <v>15</v>
-      </c>
-      <c r="F50" s="8"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
+      <c r="B50" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="107">
+        <v>7</v>
+      </c>
+      <c r="F50" s="108" t="s">
+        <v>81</v>
+      </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
@@ -4207,25 +4346,18 @@
     </row>
     <row r="51" spans="2:24" ht="15.75" customHeight="1">
       <c r="B51" s="5" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="21">
-        <v>15</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="E51" s="7">
+        <v>3</v>
+      </c>
+      <c r="F51" s="8"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
@@ -4241,23 +4373,18 @@
     </row>
     <row r="52" spans="2:24" ht="15.75" customHeight="1">
       <c r="B52" s="5" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="34">
-        <v>180</v>
+      <c r="E52" s="19">
+        <v>100</v>
       </c>
       <c r="F52" s="8"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
@@ -4272,24 +4399,19 @@
       <c r="X52" s="6"/>
     </row>
     <row r="53" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B53" s="9" t="s">
-        <v>154</v>
+      <c r="B53" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="21">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="E53" s="7">
+        <v>4</v>
       </c>
       <c r="F53" s="8"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
@@ -4305,25 +4427,18 @@
     </row>
     <row r="54" spans="2:24" ht="15.75" customHeight="1">
       <c r="B54" s="5" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="21">
-        <v>50</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="E54" s="7">
+        <v>4</v>
+      </c>
+      <c r="F54" s="8"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
@@ -4337,27 +4452,20 @@
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
     </row>
-    <row r="55" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B55" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E55" s="21">
-        <v>1</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
+    <row r="55" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B55" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="79" t="s">
+        <v>292</v>
+      </c>
+      <c r="E55" s="12">
+        <v>50</v>
+      </c>
+      <c r="F55" s="13"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
@@ -4372,26 +4480,6 @@
       <c r="X55" s="6"/>
     </row>
     <row r="56" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B56" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E56" s="21">
-        <v>1</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -4406,22 +4494,7 @@
       <c r="X56" s="6"/>
     </row>
     <row r="57" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B57" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="50"/>
-      <c r="F57" s="8"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
+      <c r="G57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -4436,22 +4509,7 @@
       <c r="X57" s="6"/>
     </row>
     <row r="58" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B58" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="51"/>
-      <c r="F58" s="16"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
+      <c r="G58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
@@ -4467,11 +4525,6 @@
     </row>
     <row r="59" spans="2:24" ht="15.75" customHeight="1">
       <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -4487,11 +4540,6 @@
     </row>
     <row r="60" spans="2:24" ht="15.75" customHeight="1">
       <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -4506,23 +4554,13 @@
       <c r="X60" s="6"/>
     </row>
     <row r="61" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
+      <c r="G61" s="1"/>
       <c r="M61" s="6"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="52"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
@@ -4531,29 +4569,7 @@
       <c r="X61" s="6"/>
     </row>
     <row r="62" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B62" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="98"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="I62" s="97"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="97"/>
-      <c r="L62" s="97"/>
-      <c r="M62" s="53"/>
-      <c r="O62" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="93"/>
-      <c r="R62" s="93"/>
-      <c r="S62" s="94"/>
+      <c r="G62" s="1"/>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
@@ -4561,55 +4577,7 @@
       <c r="X62" s="6"/>
     </row>
     <row r="63" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="G63" s="1"/>
-      <c r="H63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S63" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
@@ -4617,55 +4585,7 @@
       <c r="X63" s="1"/>
     </row>
     <row r="64" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B64" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="7">
-        <v>10</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="G64" s="1"/>
-      <c r="H64" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K64" s="7">
-        <v>15</v>
-      </c>
-      <c r="L64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="O64" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="P64" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R64" s="7">
-        <v>20</v>
-      </c>
-      <c r="S64" s="8" t="s">
-        <v>175</v>
-      </c>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
@@ -4673,107 +4593,15 @@
       <c r="X64" s="1"/>
     </row>
     <row r="65" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B65" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="7">
-        <v>20</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K65" s="7">
-        <v>15</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="O65" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="P65" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q65" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R65" s="7">
-        <v>10</v>
-      </c>
-      <c r="S65" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="T65" s="101"/>
-      <c r="U65" s="102"/>
-      <c r="V65" s="102"/>
-      <c r="W65" s="102"/>
-      <c r="X65" s="102"/>
+      <c r="G65" s="6"/>
+      <c r="T65" s="137"/>
+      <c r="U65" s="138"/>
+      <c r="V65" s="138"/>
+      <c r="W65" s="138"/>
+      <c r="X65" s="138"/>
     </row>
     <row r="66" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B66" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="7">
-        <v>7</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K66" s="7"/>
-      <c r="L66" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="M66" s="56"/>
-      <c r="O66" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="P66" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q66" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R66" s="7">
-        <v>10</v>
-      </c>
-      <c r="S66" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="G66" s="6"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
@@ -4782,321 +4610,118 @@
       <c r="Y66" s="1"/>
     </row>
     <row r="67" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B67" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="7">
-        <v>10</v>
-      </c>
-      <c r="F67" s="8"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K67" s="7">
-        <v>10</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M67" s="56"/>
-      <c r="O67" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="P67" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q67" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R67" s="7"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="57"/>
+      <c r="T67" s="52"/>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
     </row>
     <row r="68" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B68" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="7">
-        <v>30</v>
-      </c>
-      <c r="F68" s="8"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K68" s="7">
-        <v>10</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M68" s="56"/>
-      <c r="O68" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="P68" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q68" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R68" s="7"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="57"/>
+      <c r="T68" s="52"/>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
       <c r="W68" s="6"/>
       <c r="X68" s="6"/>
     </row>
     <row r="69" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B69" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" s="7">
-        <v>7</v>
-      </c>
-      <c r="F69" s="8"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K69" s="7"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="8"/>
-      <c r="O69" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="P69" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q69" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R69" s="7">
-        <v>10</v>
-      </c>
-      <c r="S69" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T69" s="59"/>
+      <c r="T69" s="54"/>
       <c r="U69" s="6"/>
       <c r="V69" s="6"/>
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
     </row>
     <row r="70" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B70" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K70" s="7">
-        <v>10</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="M70" s="8"/>
-      <c r="O70" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="P70" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q70" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="R70" s="15">
-        <v>10</v>
-      </c>
-      <c r="S70" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="T70" s="59"/>
+      <c r="T70" s="54"/>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
     </row>
     <row r="71" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B71" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" s="15"/>
-      <c r="F71" s="16"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K71" s="7">
-        <v>10</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="M71" s="8"/>
-      <c r="T71" s="59"/>
+      <c r="T71" s="54"/>
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
       <c r="X71" s="6"/>
     </row>
     <row r="72" spans="2:25" ht="15.75" customHeight="1">
+      <c r="B72" s="17"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="K72" s="7">
-        <v>10</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="M72" s="8"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
-      <c r="T72" s="59"/>
+      <c r="T72" s="54"/>
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
       <c r="X72" s="6"/>
     </row>
     <row r="73" spans="2:25" ht="15.75" customHeight="1">
+      <c r="B73" s="57"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K73" s="7">
-        <v>20</v>
-      </c>
-      <c r="L73" s="6"/>
-      <c r="M73" s="8"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
-      <c r="T73" s="59"/>
+      <c r="T73" s="54"/>
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
     </row>
     <row r="74" spans="2:25" ht="15.75" customHeight="1">
+      <c r="B74" s="58"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="58"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="I74" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="J74" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="K74" s="45">
-        <v>50</v>
-      </c>
-      <c r="L74" s="44"/>
-      <c r="M74" s="16"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
-      <c r="T74" s="59"/>
+      <c r="T74" s="54"/>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
       <c r="X74" s="6"/>
     </row>
     <row r="75" spans="2:25" ht="15.75" customHeight="1">
+      <c r="B75" s="58"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="58"/>
       <c r="G75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
@@ -5112,11 +4737,11 @@
       <c r="X75" s="6"/>
     </row>
     <row r="76" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B76" s="18"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="60"/>
       <c r="G76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
@@ -5132,7 +4757,7 @@
       <c r="X76" s="6"/>
     </row>
     <row r="77" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B77" s="18"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -5152,17 +4777,12 @@
       <c r="X77" s="6"/>
     </row>
     <row r="78" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B78" s="20"/>
+      <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
@@ -5177,16 +4797,16 @@
       <c r="X78" s="6"/>
     </row>
     <row r="79" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B79" s="63"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="7"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="22"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -5202,16 +4822,16 @@
       <c r="X79" s="6"/>
     </row>
     <row r="80" spans="2:25" ht="15.75" customHeight="1">
-      <c r="B80" s="64"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="64"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
+      <c r="H80" s="54"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
+      <c r="K80" s="7"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
@@ -5227,11 +4847,6 @@
       <c r="X80" s="6"/>
     </row>
     <row r="81" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="64"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
@@ -5239,11 +4854,11 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
-      <c r="N81" s="103"/>
-      <c r="O81" s="102"/>
-      <c r="P81" s="102"/>
-      <c r="Q81" s="102"/>
-      <c r="R81" s="102"/>
+      <c r="N81" s="139"/>
+      <c r="O81" s="138"/>
+      <c r="P81" s="138"/>
+      <c r="Q81" s="138"/>
+      <c r="R81" s="138"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
@@ -5252,11 +4867,6 @@
       <c r="X81" s="6"/>
     </row>
     <row r="82" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B82" s="66"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="66"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
@@ -5264,11 +4874,11 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
-      <c r="N82" s="68"/>
-      <c r="O82" s="68"/>
-      <c r="P82" s="68"/>
-      <c r="Q82" s="69"/>
-      <c r="R82" s="68"/>
+      <c r="N82" s="62"/>
+      <c r="O82" s="62"/>
+      <c r="P82" s="62"/>
+      <c r="Q82" s="63"/>
+      <c r="R82" s="62"/>
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
@@ -5277,17 +4887,12 @@
       <c r="X82" s="6"/>
     </row>
     <row r="83" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="70"/>
-      <c r="I83" s="71"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="71"/>
-      <c r="L83" s="71"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
@@ -5302,17 +4907,12 @@
       <c r="X83" s="6"/>
     </row>
     <row r="84" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="70"/>
-      <c r="I84" s="71"/>
-      <c r="J84" s="71"/>
-      <c r="K84" s="71"/>
-      <c r="L84" s="71"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="65"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="65"/>
+      <c r="L84" s="65"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
@@ -5327,17 +4927,11 @@
       <c r="X84" s="6"/>
     </row>
     <row r="85" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="71"/>
-      <c r="L85" s="71"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
       <c r="M85" s="6"/>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
@@ -5347,17 +4941,11 @@
       <c r="X85" s="6"/>
     </row>
     <row r="86" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="71"/>
-      <c r="L86" s="71"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="65"/>
+      <c r="L86" s="65"/>
       <c r="M86" s="6"/>
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
@@ -5367,29 +4955,11 @@
       <c r="X86" s="6"/>
     </row>
     <row r="87" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B87" s="92" t="s">
-        <v>225</v>
-      </c>
-      <c r="C87" s="93"/>
-      <c r="D87" s="93"/>
-      <c r="E87" s="93"/>
-      <c r="F87" s="94"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="92" t="s">
-        <v>226</v>
-      </c>
-      <c r="I87" s="93"/>
-      <c r="J87" s="93"/>
-      <c r="K87" s="93"/>
-      <c r="L87" s="94"/>
-      <c r="M87" s="6"/>
-      <c r="O87" s="92" t="s">
-        <v>227</v>
-      </c>
-      <c r="P87" s="93"/>
-      <c r="Q87" s="93"/>
-      <c r="R87" s="93"/>
-      <c r="S87" s="94"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="65"/>
+      <c r="L87" s="65"/>
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
@@ -5397,495 +4967,81 @@
       <c r="X87" s="6"/>
     </row>
     <row r="88" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M88" s="6"/>
-      <c r="O88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R88" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S88" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="T88" s="6"/>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
     </row>
-    <row r="89" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B89" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E89" s="7">
-        <v>7</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="1"/>
-      <c r="H89" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K89" s="7">
-        <v>7</v>
-      </c>
-      <c r="L89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M89" s="1"/>
-      <c r="O89" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="P89" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q89" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R89" s="7">
-        <v>7</v>
-      </c>
-      <c r="S89" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B90" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="7">
-        <v>60</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" s="1"/>
-      <c r="H90" s="72" t="s">
-        <v>234</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K90" s="7">
-        <v>60</v>
-      </c>
-      <c r="L90" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M90" s="1"/>
-      <c r="O90" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="P90" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q90" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R90" s="7">
-        <v>60</v>
-      </c>
-      <c r="S90" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="91" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B91" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" s="6"/>
-      <c r="H91" s="72" t="s">
-        <v>237</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K91" s="7">
-        <v>1000</v>
-      </c>
-      <c r="L91" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M91" s="6"/>
-      <c r="O91" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="P91" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R91" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S91" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B92" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K92" s="7">
-        <v>20</v>
-      </c>
-      <c r="L92" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M92" s="6"/>
-      <c r="O92" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="P92" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R92" s="7">
-        <v>15</v>
-      </c>
-      <c r="S92" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
+    <row r="89" spans="2:24" ht="15.75" customHeight="1"/>
+    <row r="90" spans="2:24" ht="15.75" customHeight="1"/>
+    <row r="91" spans="2:24" ht="15.75" customHeight="1"/>
+    <row r="92" spans="2:24" ht="15.75" customHeight="1"/>
     <row r="93" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B93" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="7">
-        <v>20</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" s="6"/>
-      <c r="H93" s="72" t="s">
-        <v>247</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K93" s="7">
-        <v>30</v>
-      </c>
-      <c r="L93" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="M93" s="6"/>
-      <c r="N93" s="59"/>
-      <c r="O93" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="P93" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q93" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="R93" s="7"/>
-      <c r="S93" s="8"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
     </row>
     <row r="94" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B94" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E94" s="7">
-        <v>1</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G94" s="6"/>
-      <c r="H94" s="73"/>
-      <c r="I94" s="74"/>
-      <c r="J94" s="74"/>
-      <c r="K94" s="74"/>
-      <c r="L94" s="75"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="59"/>
-      <c r="O94" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="P94" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q94" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R94" s="7">
-        <v>20</v>
-      </c>
-      <c r="S94" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
     </row>
     <row r="95" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B95" s="76" t="s">
-        <v>253</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="15">
-        <v>60</v>
-      </c>
-      <c r="F95" s="16"/>
-      <c r="G95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="59"/>
-      <c r="O95" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="P95" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q95" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="R95" s="7">
-        <v>1</v>
-      </c>
-      <c r="S95" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="B95" s="142"/>
+      <c r="C95" s="138"/>
+      <c r="D95" s="138"/>
+      <c r="E95" s="138"/>
+      <c r="F95" s="138"/>
     </row>
     <row r="96" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="59"/>
-      <c r="O96" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="P96" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q96" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R96" s="7">
-        <v>1000</v>
-      </c>
-      <c r="S96" s="8"/>
-    </row>
-    <row r="97" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
+      <c r="B96" s="73"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="73"/>
+      <c r="E96" s="73"/>
+      <c r="F96" s="73"/>
+    </row>
+    <row r="97" spans="7:24" ht="15.75" customHeight="1">
       <c r="G97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="P97" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q97" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R97" s="7"/>
-      <c r="S97" s="8"/>
-    </row>
-    <row r="98" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
+    </row>
+    <row r="98" spans="7:24" ht="15.75" customHeight="1">
       <c r="G98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="76" t="s">
-        <v>261</v>
-      </c>
-      <c r="P98" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q98" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="R98" s="15">
-        <v>60</v>
-      </c>
-      <c r="S98" s="16"/>
-    </row>
-    <row r="99" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
+    </row>
+    <row r="99" spans="7:24" ht="15.75" customHeight="1">
       <c r="G99" s="6"/>
-      <c r="H99" s="59"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="6"/>
       <c r="M99" s="6"/>
       <c r="S99" s="6"/>
     </row>
-    <row r="100" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
+    <row r="100" spans="7:24" ht="15.75" customHeight="1">
       <c r="G100" s="6"/>
-      <c r="H100" s="59"/>
+      <c r="H100" s="54"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
+      <c r="K100" s="7"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
       <c r="S100" s="6"/>
     </row>
-    <row r="101" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B101" s="104"/>
-      <c r="C101" s="102"/>
-      <c r="D101" s="102"/>
-      <c r="E101" s="102"/>
-      <c r="F101" s="102"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="59"/>
+    <row r="101" spans="7:24" ht="15.75" customHeight="1">
+      <c r="H101" s="54"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
       <c r="S101" s="6"/>
-      <c r="T101" s="77"/>
-      <c r="U101" s="64"/>
-      <c r="V101" s="64"/>
-      <c r="W101" s="78"/>
-      <c r="X101" s="64"/>
-    </row>
-    <row r="102" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B102" s="79"/>
-      <c r="C102" s="79"/>
-      <c r="D102" s="79"/>
-      <c r="E102" s="79"/>
-      <c r="F102" s="79"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
+      <c r="T101" s="71"/>
+      <c r="U101" s="58"/>
+      <c r="V101" s="58"/>
+      <c r="W101" s="72"/>
+      <c r="X101" s="58"/>
+    </row>
+    <row r="102" spans="7:24" ht="15.75" customHeight="1">
+      <c r="H102" s="54"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
@@ -5893,553 +5049,84 @@
       <c r="M102" s="6"/>
       <c r="S102" s="6"/>
     </row>
-    <row r="103" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B103" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="C103" s="93"/>
-      <c r="D103" s="93"/>
-      <c r="E103" s="93"/>
-      <c r="F103" s="94"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="I103" s="93"/>
-      <c r="J103" s="93"/>
-      <c r="K103" s="93"/>
-      <c r="L103" s="94"/>
+    <row r="103" spans="7:24" ht="15.75" customHeight="1">
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
       <c r="M103" s="1"/>
-      <c r="O103" s="92" t="s">
-        <v>264</v>
-      </c>
-      <c r="P103" s="93"/>
-      <c r="Q103" s="93"/>
-      <c r="R103" s="93"/>
-      <c r="S103" s="94"/>
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
       <c r="W103" s="6"/>
       <c r="X103" s="6"/>
     </row>
-    <row r="104" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B104" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G104" s="1"/>
-      <c r="H104" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L104" s="4" t="s">
-        <v>7</v>
-      </c>
+    <row r="104" spans="7:24" ht="15.75" customHeight="1">
       <c r="M104" s="1"/>
-      <c r="O104" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R104" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S104" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
       <c r="W104" s="6"/>
       <c r="X104" s="6"/>
     </row>
-    <row r="105" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B105" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C105" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E105" s="7">
-        <v>7</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" s="6"/>
-      <c r="H105" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J105" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K105" s="7">
-        <v>7</v>
-      </c>
-      <c r="L105" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="105" spans="7:24" ht="15.75" customHeight="1">
       <c r="M105" s="6"/>
-      <c r="O105" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="P105" s="90" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q105" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="R105" s="81">
-        <v>7</v>
-      </c>
-      <c r="S105" s="91" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="106" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B106" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="C106" s="88" t="s">
-        <v>287</v>
-      </c>
-      <c r="D106" s="88" t="s">
-        <v>288</v>
-      </c>
-      <c r="E106" s="22">
-        <v>60</v>
-      </c>
-      <c r="F106" s="89" t="s">
-        <v>289</v>
-      </c>
-      <c r="G106" s="6"/>
-      <c r="H106" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="I106" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="J106" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K106" s="7">
-        <v>60</v>
-      </c>
-      <c r="L106" s="8" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="106" spans="7:24" ht="15.75" customHeight="1">
       <c r="M106" s="6"/>
-      <c r="O106" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="P106" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q106" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R106" s="7">
-        <v>7</v>
-      </c>
-      <c r="S106" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B107" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" s="7">
-        <v>60</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" s="6"/>
-      <c r="H107" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="J107" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K107" s="7">
-        <v>1000</v>
-      </c>
-      <c r="L107" s="8" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="107" spans="7:24" ht="15.75" customHeight="1">
       <c r="M107" s="6"/>
-      <c r="O107" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="P107" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q107" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R107" s="7">
-        <v>500</v>
-      </c>
-      <c r="S107" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="108" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B108" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" s="6"/>
-      <c r="H108" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="J108" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K108" s="7"/>
-      <c r="L108" s="8"/>
+    </row>
+    <row r="108" spans="7:24" ht="15.75" customHeight="1">
       <c r="M108" s="6"/>
-      <c r="O108" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="P108" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q108" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R108" s="7">
-        <v>20</v>
-      </c>
-      <c r="S108" s="89" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="109" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B109" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E109" s="7"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J109" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K109" s="7">
-        <v>7</v>
-      </c>
-      <c r="L109" s="8" t="s">
-        <v>89</v>
-      </c>
+    </row>
+    <row r="109" spans="7:24" ht="15.75" customHeight="1">
       <c r="M109" s="6"/>
-      <c r="O109" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="P109" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q109" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="R109" s="15"/>
-      <c r="S109" s="16"/>
-    </row>
-    <row r="110" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B110" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" s="7">
-        <v>20</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" s="6"/>
-      <c r="H110" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J110" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K110" s="7"/>
-      <c r="L110" s="8"/>
+    </row>
+    <row r="110" spans="7:24" ht="15.75" customHeight="1">
       <c r="M110" s="6"/>
       <c r="S110" s="6"/>
     </row>
-    <row r="111" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B111" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" s="15">
-        <v>60</v>
-      </c>
-      <c r="F111" s="16"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="J111" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K111" s="7">
-        <v>2</v>
-      </c>
-      <c r="L111" s="8" t="s">
-        <v>245</v>
-      </c>
+    <row r="111" spans="7:24" ht="15.75" customHeight="1">
       <c r="M111" s="6"/>
     </row>
-    <row r="112" spans="2:24" ht="15.75" customHeight="1">
-      <c r="H112" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J112" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K112" s="7">
-        <v>20</v>
-      </c>
-      <c r="L112" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="2:24" ht="15.75" customHeight="1">
-      <c r="H113" s="76" t="s">
-        <v>277</v>
-      </c>
-      <c r="I113" s="82" t="s">
-        <v>254</v>
-      </c>
-      <c r="J113" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="K113" s="83">
-        <v>60</v>
-      </c>
-      <c r="L113" s="75"/>
-    </row>
-    <row r="114" spans="2:24" ht="15.75" customHeight="1">
-      <c r="T114" s="59"/>
+    <row r="112" spans="7:24" ht="15.75" customHeight="1"/>
+    <row r="113" spans="20:24" ht="15.75" customHeight="1"/>
+    <row r="114" spans="20:24" ht="15.75" customHeight="1">
+      <c r="T114" s="54"/>
       <c r="U114" s="6"/>
       <c r="V114" s="6"/>
       <c r="W114" s="6"/>
       <c r="X114" s="6"/>
     </row>
-    <row r="115" spans="2:24" ht="15.75" customHeight="1">
-      <c r="T115" s="59"/>
+    <row r="115" spans="20:24" ht="15.75" customHeight="1">
+      <c r="T115" s="54"/>
       <c r="U115" s="6"/>
       <c r="V115" s="6"/>
       <c r="W115" s="6"/>
       <c r="X115" s="6"/>
     </row>
-    <row r="116" spans="2:24" ht="15.75" customHeight="1">
+    <row r="116" spans="20:24" ht="15.75" customHeight="1">
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
       <c r="V116" s="6"/>
       <c r="W116" s="6"/>
       <c r="X116" s="6"/>
     </row>
-    <row r="117" spans="2:24" ht="15.75" customHeight="1"/>
-    <row r="118" spans="2:24" ht="15.75" customHeight="1"/>
-    <row r="119" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B119" s="100" t="s">
-        <v>278</v>
-      </c>
-      <c r="C119" s="93"/>
-      <c r="D119" s="93"/>
-      <c r="E119" s="93"/>
-      <c r="F119" s="94"/>
-    </row>
-    <row r="120" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B120" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B121" s="84" t="s">
-        <v>279</v>
-      </c>
-      <c r="C121" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E121" s="7">
-        <v>7</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B122" s="84" t="s">
-        <v>281</v>
-      </c>
-      <c r="C122" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" s="7">
-        <v>60</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B123" s="85" t="s">
-        <v>283</v>
-      </c>
-      <c r="C123" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="D123" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" s="15">
-        <v>1000</v>
-      </c>
-      <c r="F123" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B124" s="59"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="6"/>
-    </row>
-    <row r="125" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B125" s="59"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="6"/>
-    </row>
-    <row r="126" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B126" s="59"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="6"/>
-    </row>
-    <row r="127" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B127" s="59"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="6"/>
-    </row>
-    <row r="128" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B128" s="59"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="6"/>
-    </row>
+    <row r="117" spans="20:24" ht="15.75" customHeight="1"/>
+    <row r="118" spans="20:24" ht="15.75" customHeight="1"/>
+    <row r="119" spans="20:24" ht="15.75" customHeight="1"/>
+    <row r="120" spans="20:24" ht="15.75" customHeight="1"/>
+    <row r="121" spans="20:24" ht="15.75" customHeight="1"/>
+    <row r="122" spans="20:24" ht="15.75" customHeight="1"/>
+    <row r="123" spans="20:24" ht="15.75" customHeight="1"/>
+    <row r="124" spans="20:24" ht="15.75" customHeight="1"/>
+    <row r="125" spans="20:24" ht="15.75" customHeight="1"/>
+    <row r="126" spans="20:24" ht="15.75" customHeight="1"/>
+    <row r="127" spans="20:24" ht="15.75" customHeight="1"/>
+    <row r="128" spans="20:24" ht="15.75" customHeight="1"/>
     <row r="129" ht="15.75" customHeight="1"/>
     <row r="130" ht="15.75" customHeight="1"/>
     <row r="131" ht="15.75" customHeight="1"/>
@@ -7296,32 +5983,1902 @@
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="O62:S62"/>
+  <mergeCells count="10">
     <mergeCell ref="T65:X65"/>
     <mergeCell ref="N81:R81"/>
-    <mergeCell ref="H87:L87"/>
-    <mergeCell ref="O87:S87"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="H103:L103"/>
-    <mergeCell ref="O103:S103"/>
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="U41:Y41"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="B26:F26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="H21:L21"/>
   </mergeCells>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="8" max="11" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" customWidth="1"/>
+    <col min="14" max="18" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="13.8" thickBot="1"/>
+    <row r="2" spans="2:12" ht="14.4" thickBot="1">
+      <c r="B2" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="136"/>
+      <c r="H2" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
+    </row>
+    <row r="3" spans="2:12" ht="13.8">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="14.4">
+      <c r="B4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="18">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7">
+        <v>20</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="14.4">
+      <c r="B5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="31">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="7">
+        <v>10</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="14.4">
+      <c r="B6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="31">
+        <v>60</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="7">
+        <v>10</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="14.4">
+      <c r="B7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="31">
+        <v>60</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" ht="14.4">
+      <c r="B8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="31">
+        <v>30</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="2:12" ht="14.4">
+      <c r="B9" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="7">
+        <v>10</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1">
+      <c r="B10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="12">
+        <v>10</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="14.4" thickBot="1">
+      <c r="B11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="18">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="2:12" ht="13.8">
+      <c r="B12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="18">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="143" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="136"/>
+    </row>
+    <row r="13" spans="2:12" ht="13.8">
+      <c r="B13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="31">
+        <v>180</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="H13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="14.4">
+      <c r="B14" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="18">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="H14" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="7">
+        <v>10</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="14.4">
+      <c r="B15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="18">
+        <v>50</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="7">
+        <v>20</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="14.4">
+      <c r="B16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7">
+        <v>7</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="14.4">
+      <c r="B17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="7">
+        <v>10</v>
+      </c>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" ht="14.4">
+      <c r="B18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="8"/>
+      <c r="H18" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7">
+        <v>15</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="2:12" ht="18" thickBot="1">
+      <c r="B19" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="13"/>
+      <c r="H19" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="7">
+        <v>7</v>
+      </c>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="2:12" ht="14.4">
+      <c r="H20" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="2:12" ht="15" thickBot="1">
+      <c r="H21" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="2:12" ht="13.8" thickBot="1"/>
+    <row r="23" spans="2:12" ht="13.8">
+      <c r="H23" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="129"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="130"/>
+    </row>
+    <row r="24" spans="2:12" ht="13.8">
+      <c r="H24" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="14.4">
+      <c r="H25" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="J25" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="95">
+        <v>15</v>
+      </c>
+      <c r="L25" s="99" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="14.4">
+      <c r="H26" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="95">
+        <v>15</v>
+      </c>
+      <c r="L26" s="99" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="14.4">
+      <c r="H27" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="J27" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="95"/>
+      <c r="L27" s="100" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="14.4">
+      <c r="H28" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="95">
+        <v>10</v>
+      </c>
+      <c r="L28" s="100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="14.4">
+      <c r="H29" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29" s="94" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="95">
+        <v>10</v>
+      </c>
+      <c r="L29" s="100" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="14.4">
+      <c r="H30" s="98" t="s">
+        <v>186</v>
+      </c>
+      <c r="I30" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="J30" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="95"/>
+      <c r="L30" s="100"/>
+    </row>
+    <row r="31" spans="2:12" ht="14.4">
+      <c r="H31" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="J31" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="95">
+        <v>10</v>
+      </c>
+      <c r="L31" s="100" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="14.4">
+      <c r="H32" s="98" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="J32" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="95">
+        <v>10</v>
+      </c>
+      <c r="L32" s="100" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" ht="14.4">
+      <c r="H33" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="I33" s="94" t="s">
+        <v>204</v>
+      </c>
+      <c r="J33" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="K33" s="95">
+        <v>10</v>
+      </c>
+      <c r="L33" s="100" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12" ht="14.4">
+      <c r="H34" s="98" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" s="94" t="s">
+        <v>208</v>
+      </c>
+      <c r="J34" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="95">
+        <v>20</v>
+      </c>
+      <c r="L34" s="100"/>
+    </row>
+    <row r="35" spans="8:12" ht="15" thickBot="1">
+      <c r="H35" s="101" t="s">
+        <v>209</v>
+      </c>
+      <c r="I35" s="102" t="s">
+        <v>210</v>
+      </c>
+      <c r="J35" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="103">
+        <v>50</v>
+      </c>
+      <c r="L35" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H23:L23"/>
+  </mergeCells>
+  <phoneticPr fontId="33" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:R31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" customWidth="1"/>
+    <col min="8" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.88671875" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="13.8" thickBot="1"/>
+    <row r="2" spans="2:18" ht="14.4" thickBot="1">
+      <c r="B2" s="125" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="125" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="125" t="s">
+        <v>248</v>
+      </c>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="127"/>
+    </row>
+    <row r="3" spans="2:18" ht="13.8">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="13.8">
+      <c r="B4" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="7">
+        <v>7</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>7</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="13.8">
+      <c r="B5" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7">
+        <v>60</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7">
+        <v>60</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>60</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="13.8">
+      <c r="B6" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="13.8">
+      <c r="B7" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7">
+        <v>15</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="2:18" ht="13.8">
+      <c r="B8" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>7</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="13.8">
+      <c r="B9" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7">
+        <v>20</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="2:18" ht="14.4" thickBot="1">
+      <c r="B10" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12">
+        <v>60</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>2</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="14.4" thickBot="1">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>20</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="14.4" thickBot="1">
+      <c r="B12" s="125" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="O12" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="P12" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="76">
+        <v>60</v>
+      </c>
+      <c r="R12" s="69"/>
+    </row>
+    <row r="13" spans="2:18" ht="14.4" thickBot="1">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="12">
+        <v>60</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="2:18" ht="14.4" thickBot="1">
+      <c r="B14" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7">
+        <v>7</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="15" thickBot="1">
+      <c r="B15" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7">
+        <v>60</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="146" t="s">
+        <v>281</v>
+      </c>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="2:18" ht="13.8">
+      <c r="B16" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="2:13" ht="14.4">
+      <c r="B17" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7">
+        <v>20</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="I17" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="7">
+        <v>3</v>
+      </c>
+      <c r="L17" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.8">
+      <c r="B18" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7">
+        <v>30</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H18" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="I18" s="81" t="s">
+        <v>273</v>
+      </c>
+      <c r="J18" s="81" t="s">
+        <v>266</v>
+      </c>
+      <c r="K18" s="19">
+        <v>10</v>
+      </c>
+      <c r="L18" s="82" t="s">
+        <v>284</v>
+      </c>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="2:13" ht="14.4" thickBot="1">
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="H19" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7">
+        <v>60</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="2:13" ht="14.4" thickBot="1">
+      <c r="H20" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="2:13" ht="15" thickBot="1">
+      <c r="B21" s="145" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="127"/>
+      <c r="H21" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="2:13" ht="13.8">
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7">
+        <v>20</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="2:13" ht="15" thickBot="1">
+      <c r="B23" s="80" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3</v>
+      </c>
+      <c r="F23" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="H23" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="12">
+        <v>60</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="2:13" ht="14.4" thickBot="1">
+      <c r="B24" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="7">
+        <v>10</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="15.6" thickBot="1">
+      <c r="B25" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="79" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="146" t="s">
+        <v>282</v>
+      </c>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="127"/>
+    </row>
+    <row r="26" spans="2:13" ht="14.4" thickBot="1">
+      <c r="B26" s="54"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="H26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="16.2" thickBot="1">
+      <c r="B27" s="144" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
+      <c r="H27" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="I27" s="83" t="s">
+        <v>273</v>
+      </c>
+      <c r="J27" s="83" t="s">
+        <v>277</v>
+      </c>
+      <c r="K27" s="74">
+        <v>10</v>
+      </c>
+      <c r="L27" s="84" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="13.8">
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="7">
+        <v>7</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="13.8">
+      <c r="B29" s="80" t="s">
+        <v>271</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="19">
+        <v>3</v>
+      </c>
+      <c r="F29" s="82" t="s">
+        <v>274</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="7">
+        <v>500</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="14.4" thickBot="1">
+      <c r="B30" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="89">
+        <v>10</v>
+      </c>
+      <c r="F30" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="7">
+        <v>20</v>
+      </c>
+      <c r="L30" s="82" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="14.4" thickBot="1">
+      <c r="H31" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H15:L15"/>
+  </mergeCells>
+  <phoneticPr fontId="33" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="13.8" thickBot="1"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1">
+      <c r="B2" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+    </row>
+    <row r="3" spans="2:6" ht="13.8">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="14.4">
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="14.4">
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7">
+        <v>200</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15" thickBot="1">
+      <c r="B6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="33" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/DB/table.xlsx
+++ b/src/test/DB/table.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahnus\git\Leggo_final\src\test\DB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABC0582-B026-4090-96DA-F96AF0500C2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{947B19FA-8E3F-41A1-9BBD-DB8BB9928531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8148" yWindow="2616" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17304" windowHeight="12516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주차장" sheetId="1" r:id="rId1"/>
@@ -19,6 +14,7 @@
     <sheet name="기타" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhBL5vhRAU0la7TiVTN+9ByDT8zhQ=="/>
@@ -2594,7 +2590,28 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2618,22 +2635,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2645,11 +2646,6 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2895,21 +2891,21 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="125" t="s">
+      <c r="H2" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="127"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="136"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" customHeight="1">
       <c r="B3" s="96" t="s">
@@ -3073,13 +3069,13 @@
       <c r="H7" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="I7" s="147" t="s">
+      <c r="I7" s="125" t="s">
         <v>294</v>
       </c>
-      <c r="J7" s="147" t="s">
+      <c r="J7" s="125" t="s">
         <v>295</v>
       </c>
-      <c r="K7" s="149">
+      <c r="K7" s="127">
         <v>60</v>
       </c>
       <c r="L7" s="8"/>
@@ -3191,7 +3187,7 @@
       <c r="I10" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="148" t="s">
+      <c r="J10" s="126" t="s">
         <v>295</v>
       </c>
       <c r="K10" s="42">
@@ -3261,13 +3257,13 @@
       </c>
       <c r="F12" s="100"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="125" t="s">
+      <c r="H12" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="141"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="133"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -3358,13 +3354,13 @@
       <c r="X14" s="6"/>
     </row>
     <row r="15" spans="2:24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="141"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="133"/>
       <c r="G15" s="6"/>
       <c r="H15" s="77" t="s">
         <v>109</v>
@@ -3459,13 +3455,13 @@
       <c r="H17" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="I17" s="147" t="s">
+      <c r="I17" s="125" t="s">
         <v>294</v>
       </c>
-      <c r="J17" s="147" t="s">
+      <c r="J17" s="125" t="s">
         <v>295</v>
       </c>
-      <c r="K17" s="149">
+      <c r="K17" s="127">
         <v>60</v>
       </c>
       <c r="L17" s="8"/>
@@ -3616,13 +3612,13 @@
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="134" t="s">
+      <c r="H21" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="136"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="145"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -3794,13 +3790,13 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="133"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="6"/>
       <c r="H26" s="20" t="s">
         <v>127</v>
@@ -4266,13 +4262,13 @@
       <c r="T47" s="6"/>
     </row>
     <row r="48" spans="2:25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B48" s="125" t="s">
+      <c r="B48" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="127"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="136"/>
       <c r="M48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
@@ -4594,11 +4590,11 @@
     </row>
     <row r="65" spans="2:25" ht="15.75" customHeight="1">
       <c r="G65" s="6"/>
-      <c r="T65" s="137"/>
-      <c r="U65" s="138"/>
-      <c r="V65" s="138"/>
-      <c r="W65" s="138"/>
-      <c r="X65" s="138"/>
+      <c r="T65" s="128"/>
+      <c r="U65" s="129"/>
+      <c r="V65" s="129"/>
+      <c r="W65" s="129"/>
+      <c r="X65" s="129"/>
     </row>
     <row r="66" spans="2:25" ht="15.75" customHeight="1">
       <c r="G66" s="6"/>
@@ -4854,11 +4850,11 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
-      <c r="N81" s="139"/>
-      <c r="O81" s="138"/>
-      <c r="P81" s="138"/>
-      <c r="Q81" s="138"/>
-      <c r="R81" s="138"/>
+      <c r="N81" s="130"/>
+      <c r="O81" s="129"/>
+      <c r="P81" s="129"/>
+      <c r="Q81" s="129"/>
+      <c r="R81" s="129"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
@@ -4992,11 +4988,11 @@
       <c r="F94" s="6"/>
     </row>
     <row r="95" spans="2:24" ht="15.75" customHeight="1">
-      <c r="B95" s="142"/>
-      <c r="C95" s="138"/>
-      <c r="D95" s="138"/>
-      <c r="E95" s="138"/>
-      <c r="F95" s="138"/>
+      <c r="B95" s="134"/>
+      <c r="C95" s="129"/>
+      <c r="D95" s="129"/>
+      <c r="E95" s="129"/>
+      <c r="F95" s="129"/>
     </row>
     <row r="96" spans="2:24" ht="15.75" customHeight="1">
       <c r="B96" s="73"/>
@@ -5984,16 +5980,16 @@
     <row r="983" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="H21:L21"/>
     <mergeCell ref="T65:X65"/>
     <mergeCell ref="N81:R81"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="B95:F95"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="H21:L21"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6025,20 +6021,20 @@
   <sheetData>
     <row r="1" spans="2:12" ht="13.8" thickBot="1"/>
     <row r="2" spans="2:12" ht="14.4" thickBot="1">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="146" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="136"/>
-      <c r="H2" s="125" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="H2" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="127"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="136"/>
     </row>
     <row r="3" spans="2:12" ht="13.8">
       <c r="B3" s="2" t="s">
@@ -6317,13 +6313,13 @@
       <c r="F12" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="143" t="s">
+      <c r="H12" s="146" t="s">
         <v>155</v>
       </c>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="136"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="145"/>
     </row>
     <row r="13" spans="2:12" ht="13.8">
       <c r="B13" s="5" t="s">
@@ -6559,13 +6555,13 @@
     </row>
     <row r="22" spans="2:12" ht="13.8" thickBot="1"/>
     <row r="23" spans="2:12" ht="13.8">
-      <c r="H23" s="131" t="s">
+      <c r="H23" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="130"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="139"/>
     </row>
     <row r="24" spans="2:12" ht="13.8">
       <c r="H24" s="96" t="s">
@@ -6799,29 +6795,29 @@
   <sheetData>
     <row r="1" spans="2:18" ht="13.8" thickBot="1"/>
     <row r="2" spans="2:18" ht="14.4" thickBot="1">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="131" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="136"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="125" t="s">
+      <c r="H2" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="127"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="136"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="125" t="s">
+      <c r="N2" s="131" t="s">
         <v>248</v>
       </c>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="127"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="136"/>
     </row>
     <row r="3" spans="2:18" ht="13.8">
       <c r="B3" s="2" t="s">
@@ -7235,13 +7231,13 @@
       </c>
     </row>
     <row r="12" spans="2:18" ht="14.4" thickBot="1">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="131" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="136"/>
       <c r="G12" s="6"/>
       <c r="H12" s="30" t="s">
         <v>245</v>
@@ -7334,13 +7330,13 @@
       <c r="F15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="146" t="s">
+      <c r="H15" s="149" t="s">
         <v>281</v>
       </c>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="127"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="136"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="2:18" ht="13.8">
@@ -7484,13 +7480,13 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="2:13" ht="15" thickBot="1">
-      <c r="B21" s="145" t="s">
+      <c r="B21" s="148" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="127"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="136"/>
       <c r="H21" s="30" t="s">
         <v>225</v>
       </c>
@@ -7601,13 +7597,13 @@
       <c r="F25" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="146" t="s">
+      <c r="H25" s="149" t="s">
         <v>282</v>
       </c>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="127"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="136"/>
     </row>
     <row r="26" spans="2:13" ht="14.4" thickBot="1">
       <c r="B26" s="54"/>
@@ -7632,13 +7628,13 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="16.2" thickBot="1">
-      <c r="B27" s="144" t="s">
+      <c r="B27" s="147" t="s">
         <v>279</v>
       </c>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="127"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="136"/>
       <c r="H27" s="85" t="s">
         <v>270</v>
       </c>
@@ -7798,13 +7794,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="13.8" thickBot="1"/>
     <row r="2" spans="2:6" ht="15" thickBot="1">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="136"/>
     </row>
     <row r="3" spans="2:6" ht="13.8">
       <c r="B3" s="2" t="s">
